--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Norway Eliteserien</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Odd</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['39', '90+2']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7294955</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45382.54166666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2.2</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2">
+        <v>1.4</v>
+      </c>
+      <c r="U2">
+        <v>2.75</v>
+      </c>
+      <c r="V2">
+        <v>2.75</v>
+      </c>
+      <c r="W2">
+        <v>1.4</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>1.08</v>
+      </c>
+      <c r="Z2">
+        <v>2.07</v>
+      </c>
+      <c r="AA2">
+        <v>3.65</v>
+      </c>
+      <c r="AB2">
+        <v>3.4</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>9.1</v>
+      </c>
+      <c r="AE2">
+        <v>1.27</v>
+      </c>
+      <c r="AF2">
+        <v>3.28</v>
+      </c>
+      <c r="AG2">
+        <v>2.01</v>
+      </c>
+      <c r="AH2">
+        <v>1.87</v>
+      </c>
+      <c r="AI2">
+        <v>1.75</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>1.38</v>
+      </c>
+      <c r="AL2">
+        <v>1.25</v>
+      </c>
+      <c r="AM2">
+        <v>1.57</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>8</v>
+      </c>
+      <c r="AV2">
+        <v>3</v>
+      </c>
+      <c r="AW2">
+        <v>7</v>
+      </c>
+      <c r="AX2">
+        <v>2</v>
+      </c>
+      <c r="AY2">
+        <v>15</v>
+      </c>
+      <c r="AZ2">
+        <v>5</v>
+      </c>
+      <c r="BA2">
+        <v>10</v>
+      </c>
+      <c r="BB2">
+        <v>3</v>
+      </c>
+      <c r="BC2">
+        <v>13</v>
+      </c>
+      <c r="BD2">
+        <v>1.78</v>
+      </c>
+      <c r="BE2">
+        <v>7.8</v>
+      </c>
+      <c r="BF2">
+        <v>2.48</v>
+      </c>
+      <c r="BG2">
+        <v>1.14</v>
+      </c>
+      <c r="BH2">
+        <v>4.6</v>
+      </c>
+      <c r="BI2">
+        <v>1.3</v>
+      </c>
+      <c r="BJ2">
+        <v>3.08</v>
+      </c>
+      <c r="BK2">
+        <v>1.62</v>
+      </c>
+      <c r="BL2">
+        <v>2.26</v>
+      </c>
+      <c r="BM2">
+        <v>1.9</v>
+      </c>
+      <c r="BN2">
+        <v>1.9</v>
+      </c>
+      <c r="BO2">
+        <v>2.5</v>
+      </c>
+      <c r="BP2">
+        <v>1.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,76 @@
     <t>Odd</t>
   </si>
   <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>Lillestrøm</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
     <t>Haugesund</t>
   </si>
   <si>
+    <t>FK Bodo - Glimt</t>
+  </si>
+  <si>
+    <t>Strømsgodset</t>
+  </si>
+  <si>
+    <t>Brann</t>
+  </si>
+  <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Sandefjord</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['24', '51', '73', '90']</t>
+  </si>
+  <si>
+    <t>['65', '73']</t>
+  </si>
+  <si>
+    <t>['59', '82']</t>
+  </si>
+  <si>
+    <t>['65', '90+6']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
+  </si>
+  <si>
+    <t>['47', '70']</t>
+  </si>
+  <si>
+    <t>['18', '24', '53', '84']</t>
+  </si>
+  <si>
+    <t>['13', '49', '66']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +895,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -853,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1013,6 +1076,1242 @@
       </c>
       <c r="BP2">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7294956</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45383.39583333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3">
+        <v>4.75</v>
+      </c>
+      <c r="R3">
+        <v>2.4</v>
+      </c>
+      <c r="S3">
+        <v>2.2</v>
+      </c>
+      <c r="T3">
+        <v>1.29</v>
+      </c>
+      <c r="U3">
+        <v>3.5</v>
+      </c>
+      <c r="V3">
+        <v>2.38</v>
+      </c>
+      <c r="W3">
+        <v>1.53</v>
+      </c>
+      <c r="X3">
+        <v>5.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.14</v>
+      </c>
+      <c r="Z3">
+        <v>4.75</v>
+      </c>
+      <c r="AA3">
+        <v>4.1</v>
+      </c>
+      <c r="AB3">
+        <v>1.62</v>
+      </c>
+      <c r="AC3">
+        <v>1.03</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>1.2</v>
+      </c>
+      <c r="AF3">
+        <v>4.5</v>
+      </c>
+      <c r="AG3">
+        <v>1.57</v>
+      </c>
+      <c r="AH3">
+        <v>2.25</v>
+      </c>
+      <c r="AI3">
+        <v>1.62</v>
+      </c>
+      <c r="AJ3">
+        <v>2.2</v>
+      </c>
+      <c r="AK3">
+        <v>2.2</v>
+      </c>
+      <c r="AL3">
+        <v>1.18</v>
+      </c>
+      <c r="AM3">
+        <v>1.18</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>4</v>
+      </c>
+      <c r="AX3">
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <v>6</v>
+      </c>
+      <c r="AZ3">
+        <v>10</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>5</v>
+      </c>
+      <c r="BC3">
+        <v>6</v>
+      </c>
+      <c r="BD3">
+        <v>3</v>
+      </c>
+      <c r="BE3">
+        <v>8.5</v>
+      </c>
+      <c r="BF3">
+        <v>1.5</v>
+      </c>
+      <c r="BG3">
+        <v>1.2</v>
+      </c>
+      <c r="BH3">
+        <v>4.25</v>
+      </c>
+      <c r="BI3">
+        <v>1.34</v>
+      </c>
+      <c r="BJ3">
+        <v>3</v>
+      </c>
+      <c r="BK3">
+        <v>1.6</v>
+      </c>
+      <c r="BL3">
+        <v>2.2</v>
+      </c>
+      <c r="BM3">
+        <v>2.07</v>
+      </c>
+      <c r="BN3">
+        <v>1.67</v>
+      </c>
+      <c r="BO3">
+        <v>2.75</v>
+      </c>
+      <c r="BP3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7294957</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45383.5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4">
+        <v>1.91</v>
+      </c>
+      <c r="R4">
+        <v>2.6</v>
+      </c>
+      <c r="S4">
+        <v>6.5</v>
+      </c>
+      <c r="T4">
+        <v>1.29</v>
+      </c>
+      <c r="U4">
+        <v>3.5</v>
+      </c>
+      <c r="V4">
+        <v>2.25</v>
+      </c>
+      <c r="W4">
+        <v>1.57</v>
+      </c>
+      <c r="X4">
+        <v>5.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.14</v>
+      </c>
+      <c r="Z4">
+        <v>1.4</v>
+      </c>
+      <c r="AA4">
+        <v>4.85</v>
+      </c>
+      <c r="AB4">
+        <v>6.47</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>12</v>
+      </c>
+      <c r="AE4">
+        <v>1.17</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>1.55</v>
+      </c>
+      <c r="AH4">
+        <v>2.36</v>
+      </c>
+      <c r="AI4">
+        <v>1.8</v>
+      </c>
+      <c r="AJ4">
+        <v>1.95</v>
+      </c>
+      <c r="AK4">
+        <v>1.1</v>
+      </c>
+      <c r="AL4">
+        <v>1.13</v>
+      </c>
+      <c r="AM4">
+        <v>2.8</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>11</v>
+      </c>
+      <c r="AV4">
+        <v>6</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>14</v>
+      </c>
+      <c r="AZ4">
+        <v>9</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>5</v>
+      </c>
+      <c r="BC4">
+        <v>8</v>
+      </c>
+      <c r="BD4">
+        <v>1.22</v>
+      </c>
+      <c r="BE4">
+        <v>12.25</v>
+      </c>
+      <c r="BF4">
+        <v>5.2</v>
+      </c>
+      <c r="BG4">
+        <v>1.09</v>
+      </c>
+      <c r="BH4">
+        <v>5.6</v>
+      </c>
+      <c r="BI4">
+        <v>1.21</v>
+      </c>
+      <c r="BJ4">
+        <v>3.74</v>
+      </c>
+      <c r="BK4">
+        <v>1.41</v>
+      </c>
+      <c r="BL4">
+        <v>2.69</v>
+      </c>
+      <c r="BM4">
+        <v>1.92</v>
+      </c>
+      <c r="BN4">
+        <v>1.88</v>
+      </c>
+      <c r="BO4">
+        <v>2.15</v>
+      </c>
+      <c r="BP4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7294958</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45383.5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>2.3</v>
+      </c>
+      <c r="S5">
+        <v>2.5</v>
+      </c>
+      <c r="T5">
+        <v>1.33</v>
+      </c>
+      <c r="U5">
+        <v>3.25</v>
+      </c>
+      <c r="V5">
+        <v>2.5</v>
+      </c>
+      <c r="W5">
+        <v>1.5</v>
+      </c>
+      <c r="X5">
+        <v>6.5</v>
+      </c>
+      <c r="Y5">
+        <v>1.11</v>
+      </c>
+      <c r="Z5">
+        <v>3.69</v>
+      </c>
+      <c r="AA5">
+        <v>3.75</v>
+      </c>
+      <c r="AB5">
+        <v>1.86</v>
+      </c>
+      <c r="AC5">
+        <v>1.04</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>1.19</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>1.67</v>
+      </c>
+      <c r="AH5">
+        <v>2.12</v>
+      </c>
+      <c r="AI5">
+        <v>1.67</v>
+      </c>
+      <c r="AJ5">
+        <v>2.1</v>
+      </c>
+      <c r="AK5">
+        <v>1.9</v>
+      </c>
+      <c r="AL5">
+        <v>1.27</v>
+      </c>
+      <c r="AM5">
+        <v>1.27</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>8</v>
+      </c>
+      <c r="AV5">
+        <v>11</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>9</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+      <c r="AZ5">
+        <v>20</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>10</v>
+      </c>
+      <c r="BC5">
+        <v>16</v>
+      </c>
+      <c r="BD5">
+        <v>2.5</v>
+      </c>
+      <c r="BE5">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF5">
+        <v>1.71</v>
+      </c>
+      <c r="BG5">
+        <v>1.19</v>
+      </c>
+      <c r="BH5">
+        <v>3.92</v>
+      </c>
+      <c r="BI5">
+        <v>1.4</v>
+      </c>
+      <c r="BJ5">
+        <v>2.72</v>
+      </c>
+      <c r="BK5">
+        <v>1.75</v>
+      </c>
+      <c r="BL5">
+        <v>2.07</v>
+      </c>
+      <c r="BM5">
+        <v>2.15</v>
+      </c>
+      <c r="BN5">
+        <v>1.69</v>
+      </c>
+      <c r="BO5">
+        <v>2.79</v>
+      </c>
+      <c r="BP5">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7294959</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45383.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6">
+        <v>2.1</v>
+      </c>
+      <c r="R6">
+        <v>2.38</v>
+      </c>
+      <c r="S6">
+        <v>5.5</v>
+      </c>
+      <c r="T6">
+        <v>1.3</v>
+      </c>
+      <c r="U6">
+        <v>3.4</v>
+      </c>
+      <c r="V6">
+        <v>2.5</v>
+      </c>
+      <c r="W6">
+        <v>1.5</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>1.13</v>
+      </c>
+      <c r="Z6">
+        <v>1.52</v>
+      </c>
+      <c r="AA6">
+        <v>3.74</v>
+      </c>
+      <c r="AB6">
+        <v>4.29</v>
+      </c>
+      <c r="AC6">
+        <v>1.03</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AE6">
+        <v>1.2</v>
+      </c>
+      <c r="AF6">
+        <v>4.33</v>
+      </c>
+      <c r="AG6">
+        <v>1.65</v>
+      </c>
+      <c r="AH6">
+        <v>2.15</v>
+      </c>
+      <c r="AI6">
+        <v>1.75</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>1.17</v>
+      </c>
+      <c r="AL6">
+        <v>1.17</v>
+      </c>
+      <c r="AM6">
+        <v>2.3</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>7</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>5</v>
+      </c>
+      <c r="AX6">
+        <v>3</v>
+      </c>
+      <c r="AY6">
+        <v>12</v>
+      </c>
+      <c r="AZ6">
+        <v>8</v>
+      </c>
+      <c r="BA6">
+        <v>11</v>
+      </c>
+      <c r="BB6">
+        <v>2</v>
+      </c>
+      <c r="BC6">
+        <v>13</v>
+      </c>
+      <c r="BD6">
+        <v>1.36</v>
+      </c>
+      <c r="BE6">
+        <v>9.5</v>
+      </c>
+      <c r="BF6">
+        <v>3.6</v>
+      </c>
+      <c r="BG6">
+        <v>1.1</v>
+      </c>
+      <c r="BH6">
+        <v>5.45</v>
+      </c>
+      <c r="BI6">
+        <v>1.24</v>
+      </c>
+      <c r="BJ6">
+        <v>3.8</v>
+      </c>
+      <c r="BK6">
+        <v>1.41</v>
+      </c>
+      <c r="BL6">
+        <v>2.7</v>
+      </c>
+      <c r="BM6">
+        <v>1.73</v>
+      </c>
+      <c r="BN6">
+        <v>1.99</v>
+      </c>
+      <c r="BO6">
+        <v>2.17</v>
+      </c>
+      <c r="BP6">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7294960</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45383.5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7">
+        <v>2.3</v>
+      </c>
+      <c r="R7">
+        <v>2.3</v>
+      </c>
+      <c r="S7">
+        <v>4.75</v>
+      </c>
+      <c r="T7">
+        <v>1.33</v>
+      </c>
+      <c r="U7">
+        <v>3.25</v>
+      </c>
+      <c r="V7">
+        <v>2.63</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>6.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.11</v>
+      </c>
+      <c r="Z7">
+        <v>1.64</v>
+      </c>
+      <c r="AA7">
+        <v>3.95</v>
+      </c>
+      <c r="AB7">
+        <v>4.72</v>
+      </c>
+      <c r="AC7">
+        <v>1.04</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>1.22</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>1.72</v>
+      </c>
+      <c r="AH7">
+        <v>2.05</v>
+      </c>
+      <c r="AI7">
+        <v>1.75</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>1.2</v>
+      </c>
+      <c r="AL7">
+        <v>1.2</v>
+      </c>
+      <c r="AM7">
+        <v>2.05</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>5</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>9</v>
+      </c>
+      <c r="AZ7">
+        <v>10</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>4</v>
+      </c>
+      <c r="BD7">
+        <v>1.55</v>
+      </c>
+      <c r="BE7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>2.89</v>
+      </c>
+      <c r="BG7">
+        <v>1.14</v>
+      </c>
+      <c r="BH7">
+        <v>4.6</v>
+      </c>
+      <c r="BI7">
+        <v>1.3</v>
+      </c>
+      <c r="BJ7">
+        <v>3.08</v>
+      </c>
+      <c r="BK7">
+        <v>1.6</v>
+      </c>
+      <c r="BL7">
+        <v>2.29</v>
+      </c>
+      <c r="BM7">
+        <v>1.98</v>
+      </c>
+      <c r="BN7">
+        <v>1.82</v>
+      </c>
+      <c r="BO7">
+        <v>2.46</v>
+      </c>
+      <c r="BP7">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7294961</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45383.59375</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8">
+        <v>2.3</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1.25</v>
+      </c>
+      <c r="U8">
+        <v>3.75</v>
+      </c>
+      <c r="V8">
+        <v>2.1</v>
+      </c>
+      <c r="W8">
+        <v>1.67</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>1.17</v>
+      </c>
+      <c r="Z8">
+        <v>1.73</v>
+      </c>
+      <c r="AA8">
+        <v>4.1</v>
+      </c>
+      <c r="AB8">
+        <v>3.95</v>
+      </c>
+      <c r="AC8">
+        <v>1.02</v>
+      </c>
+      <c r="AD8">
+        <v>13</v>
+      </c>
+      <c r="AE8">
+        <v>1.15</v>
+      </c>
+      <c r="AF8">
+        <v>5.25</v>
+      </c>
+      <c r="AG8">
+        <v>1.42</v>
+      </c>
+      <c r="AH8">
+        <v>2.74</v>
+      </c>
+      <c r="AI8">
+        <v>1.44</v>
+      </c>
+      <c r="AJ8">
+        <v>2.63</v>
+      </c>
+      <c r="AK8">
+        <v>1.25</v>
+      </c>
+      <c r="AL8">
+        <v>1.2</v>
+      </c>
+      <c r="AM8">
+        <v>1.95</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AW8">
+        <v>10</v>
+      </c>
+      <c r="AX8">
+        <v>5</v>
+      </c>
+      <c r="AY8">
+        <v>14</v>
+      </c>
+      <c r="AZ8">
+        <v>9</v>
+      </c>
+      <c r="BA8">
+        <v>4</v>
+      </c>
+      <c r="BB8">
+        <v>7</v>
+      </c>
+      <c r="BC8">
+        <v>11</v>
+      </c>
+      <c r="BD8">
+        <v>1.63</v>
+      </c>
+      <c r="BE8">
+        <v>9.9</v>
+      </c>
+      <c r="BF8">
+        <v>2.64</v>
+      </c>
+      <c r="BG8">
+        <v>1.15</v>
+      </c>
+      <c r="BH8">
+        <v>5.1</v>
+      </c>
+      <c r="BI8">
+        <v>1.24</v>
+      </c>
+      <c r="BJ8">
+        <v>3.48</v>
+      </c>
+      <c r="BK8">
+        <v>1.52</v>
+      </c>
+      <c r="BL8">
+        <v>2.49</v>
+      </c>
+      <c r="BM8">
+        <v>1.92</v>
+      </c>
+      <c r="BN8">
+        <v>1.88</v>
+      </c>
+      <c r="BO8">
+        <v>2.25</v>
+      </c>
+      <c r="BP8">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,6 +247,9 @@
     <t>Viking</t>
   </si>
   <si>
+    <t>KFUM</t>
+  </si>
+  <si>
     <t>Haugesund</t>
   </si>
   <si>
@@ -268,6 +271,9 @@
     <t>Sarpsborg 08</t>
   </si>
   <si>
+    <t>HamKam</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -299,6 +308,9 @@
   </si>
   <si>
     <t>['13', '49', '66']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -660,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +907,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -916,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1101,7 +1113,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1122,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1307,7 +1319,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1328,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4">
         <v>1.91</v>
@@ -1513,7 +1525,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1534,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1719,7 +1731,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1740,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -1925,7 +1937,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1946,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q7">
         <v>2.3</v>
@@ -2131,7 +2143,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2152,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2312,6 +2324,212 @@
       </c>
       <c r="BP8">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7294962</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45384.58333333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2.2</v>
+      </c>
+      <c r="S9">
+        <v>3.5</v>
+      </c>
+      <c r="T9">
+        <v>1.36</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2.63</v>
+      </c>
+      <c r="W9">
+        <v>1.44</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>1.1</v>
+      </c>
+      <c r="Z9">
+        <v>2.38</v>
+      </c>
+      <c r="AA9">
+        <v>3.3</v>
+      </c>
+      <c r="AB9">
+        <v>2.8</v>
+      </c>
+      <c r="AC9">
+        <v>1.03</v>
+      </c>
+      <c r="AD9">
+        <v>10.25</v>
+      </c>
+      <c r="AE9">
+        <v>1.24</v>
+      </c>
+      <c r="AF9">
+        <v>4.17</v>
+      </c>
+      <c r="AG9">
+        <v>1.75</v>
+      </c>
+      <c r="AH9">
+        <v>1.95</v>
+      </c>
+      <c r="AI9">
+        <v>1.67</v>
+      </c>
+      <c r="AJ9">
+        <v>2.1</v>
+      </c>
+      <c r="AK9">
+        <v>1.43</v>
+      </c>
+      <c r="AL9">
+        <v>1.3</v>
+      </c>
+      <c r="AM9">
+        <v>1.61</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>10</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>7</v>
+      </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
+      <c r="AY9">
+        <v>17</v>
+      </c>
+      <c r="AZ9">
+        <v>7</v>
+      </c>
+      <c r="BA9">
+        <v>6</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
+        <v>1.62</v>
+      </c>
+      <c r="BE9">
+        <v>8.5</v>
+      </c>
+      <c r="BF9">
+        <v>2.6</v>
+      </c>
+      <c r="BG9">
+        <v>1.13</v>
+      </c>
+      <c r="BH9">
+        <v>4.85</v>
+      </c>
+      <c r="BI9">
+        <v>1.29</v>
+      </c>
+      <c r="BJ9">
+        <v>3.45</v>
+      </c>
+      <c r="BK9">
+        <v>1.47</v>
+      </c>
+      <c r="BL9">
+        <v>2.5</v>
+      </c>
+      <c r="BM9">
+        <v>1.85</v>
+      </c>
+      <c r="BN9">
+        <v>1.85</v>
+      </c>
+      <c r="BO9">
+        <v>2.35</v>
+      </c>
+      <c r="BP9">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,12 +250,12 @@
     <t>KFUM</t>
   </si>
   <si>
+    <t>FK Bodo - Glimt</t>
+  </si>
+  <si>
     <t>Haugesund</t>
   </si>
   <si>
-    <t>FK Bodo - Glimt</t>
-  </si>
-  <si>
     <t>Strømsgodset</t>
   </si>
   <si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -672,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +910,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -931,7 +934,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1113,7 +1116,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1137,7 +1140,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1549,7 +1552,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1755,7 +1758,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2373,7 +2376,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2530,6 +2533,212 @@
       </c>
       <c r="BP9">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7294963</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10">
+        <v>1.83</v>
+      </c>
+      <c r="R10">
+        <v>2.7</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>1.18</v>
+      </c>
+      <c r="U10">
+        <v>4.33</v>
+      </c>
+      <c r="V10">
+        <v>1.85</v>
+      </c>
+      <c r="W10">
+        <v>1.83</v>
+      </c>
+      <c r="X10">
+        <v>3.82</v>
+      </c>
+      <c r="Y10">
+        <v>1.24</v>
+      </c>
+      <c r="Z10">
+        <v>1.44</v>
+      </c>
+      <c r="AA10">
+        <v>5.4</v>
+      </c>
+      <c r="AB10">
+        <v>5.8</v>
+      </c>
+      <c r="AC10">
+        <v>1.01</v>
+      </c>
+      <c r="AD10">
+        <v>34.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.09</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>1.27</v>
+      </c>
+      <c r="AH10">
+        <v>3.33</v>
+      </c>
+      <c r="AI10">
+        <v>1.45</v>
+      </c>
+      <c r="AJ10">
+        <v>2.5</v>
+      </c>
+      <c r="AK10">
+        <v>1.11</v>
+      </c>
+      <c r="AL10">
+        <v>1.12</v>
+      </c>
+      <c r="AM10">
+        <v>2.75</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>-1</v>
+      </c>
+      <c r="AV10">
+        <v>-1</v>
+      </c>
+      <c r="AW10">
+        <v>-1</v>
+      </c>
+      <c r="AX10">
+        <v>-1</v>
+      </c>
+      <c r="AY10">
+        <v>-1</v>
+      </c>
+      <c r="AZ10">
+        <v>-1</v>
+      </c>
+      <c r="BA10">
+        <v>-1</v>
+      </c>
+      <c r="BB10">
+        <v>-1</v>
+      </c>
+      <c r="BC10">
+        <v>-1</v>
+      </c>
+      <c r="BD10">
+        <v>1.4</v>
+      </c>
+      <c r="BE10">
+        <v>9</v>
+      </c>
+      <c r="BF10">
+        <v>3.25</v>
+      </c>
+      <c r="BG10">
+        <v>1.16</v>
+      </c>
+      <c r="BH10">
+        <v>4.3</v>
+      </c>
+      <c r="BI10">
+        <v>1.32</v>
+      </c>
+      <c r="BJ10">
+        <v>3.1</v>
+      </c>
+      <c r="BK10">
+        <v>1.56</v>
+      </c>
+      <c r="BL10">
+        <v>2.27</v>
+      </c>
+      <c r="BM10">
+        <v>1.99</v>
+      </c>
+      <c r="BN10">
+        <v>1.73</v>
+      </c>
+      <c r="BO10">
+        <v>2.6</v>
+      </c>
+      <c r="BP10">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,27 +253,27 @@
     <t>FK Bodo - Glimt</t>
   </si>
   <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Strømsgodset</t>
+  </si>
+  <si>
     <t>Haugesund</t>
   </si>
   <si>
-    <t>Strømsgodset</t>
+    <t>HamKam</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08</t>
   </si>
   <si>
     <t>Brann</t>
   </si>
   <si>
-    <t>Kristiansund</t>
-  </si>
-  <si>
     <t>Sandefjord</t>
   </si>
   <si>
-    <t>Sarpsborg 08</t>
-  </si>
-  <si>
-    <t>HamKam</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -301,6 +301,12 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -314,6 +320,21 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['13', '34']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['42', '72']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +931,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -934,7 +955,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1140,7 +1161,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1528,7 +1549,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1552,7 +1573,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1734,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1758,7 +1779,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -1940,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2146,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2352,7 +2373,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2376,7 +2397,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2675,31 +2696,31 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC10">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD10">
         <v>1.4</v>
@@ -2739,6 +2760,1242 @@
       </c>
       <c r="BP10">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7294964</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45389.39583333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11">
+        <v>2.88</v>
+      </c>
+      <c r="R11">
+        <v>2.25</v>
+      </c>
+      <c r="S11">
+        <v>3.5</v>
+      </c>
+      <c r="T11">
+        <v>1.33</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.1</v>
+      </c>
+      <c r="Z11">
+        <v>2.2</v>
+      </c>
+      <c r="AA11">
+        <v>3.4</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>10.25</v>
+      </c>
+      <c r="AE11">
+        <v>1.22</v>
+      </c>
+      <c r="AF11">
+        <v>3.66</v>
+      </c>
+      <c r="AG11">
+        <v>1.73</v>
+      </c>
+      <c r="AH11">
+        <v>2</v>
+      </c>
+      <c r="AI11">
+        <v>1.67</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1</v>
+      </c>
+      <c r="AK11">
+        <v>1.42</v>
+      </c>
+      <c r="AL11">
+        <v>1.29</v>
+      </c>
+      <c r="AM11">
+        <v>1.58</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>6</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>7</v>
+      </c>
+      <c r="AZ11">
+        <v>10</v>
+      </c>
+      <c r="BA11">
+        <v>3</v>
+      </c>
+      <c r="BB11">
+        <v>6</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>1.95</v>
+      </c>
+      <c r="BE11">
+        <v>8.5</v>
+      </c>
+      <c r="BF11">
+        <v>2.1</v>
+      </c>
+      <c r="BG11">
+        <v>1.13</v>
+      </c>
+      <c r="BH11">
+        <v>4.85</v>
+      </c>
+      <c r="BI11">
+        <v>1.27</v>
+      </c>
+      <c r="BJ11">
+        <v>3.28</v>
+      </c>
+      <c r="BK11">
+        <v>1.51</v>
+      </c>
+      <c r="BL11">
+        <v>2.39</v>
+      </c>
+      <c r="BM11">
+        <v>1.9</v>
+      </c>
+      <c r="BN11">
+        <v>1.9</v>
+      </c>
+      <c r="BO11">
+        <v>2.36</v>
+      </c>
+      <c r="BP11">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7294967</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12">
+        <v>3.1</v>
+      </c>
+      <c r="R12">
+        <v>2.2</v>
+      </c>
+      <c r="S12">
+        <v>2.95</v>
+      </c>
+      <c r="T12">
+        <v>1.33</v>
+      </c>
+      <c r="U12">
+        <v>3.1</v>
+      </c>
+      <c r="V12">
+        <v>2.4</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>5.7</v>
+      </c>
+      <c r="Y12">
+        <v>1.12</v>
+      </c>
+      <c r="Z12">
+        <v>2.26</v>
+      </c>
+      <c r="AA12">
+        <v>3.3</v>
+      </c>
+      <c r="AB12">
+        <v>2.8</v>
+      </c>
+      <c r="AC12">
+        <v>1.04</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>1.22</v>
+      </c>
+      <c r="AF12">
+        <v>4.2</v>
+      </c>
+      <c r="AG12">
+        <v>1.65</v>
+      </c>
+      <c r="AH12">
+        <v>2.1</v>
+      </c>
+      <c r="AI12">
+        <v>1.53</v>
+      </c>
+      <c r="AJ12">
+        <v>2.3</v>
+      </c>
+      <c r="AK12">
+        <v>1.5</v>
+      </c>
+      <c r="AL12">
+        <v>1.25</v>
+      </c>
+      <c r="AM12">
+        <v>1.48</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>7</v>
+      </c>
+      <c r="AZ12">
+        <v>5</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
+      <c r="BD12">
+        <v>1.95</v>
+      </c>
+      <c r="BE12">
+        <v>8</v>
+      </c>
+      <c r="BF12">
+        <v>2.05</v>
+      </c>
+      <c r="BG12">
+        <v>1.16</v>
+      </c>
+      <c r="BH12">
+        <v>4.33</v>
+      </c>
+      <c r="BI12">
+        <v>1.32</v>
+      </c>
+      <c r="BJ12">
+        <v>3.1</v>
+      </c>
+      <c r="BK12">
+        <v>1.54</v>
+      </c>
+      <c r="BL12">
+        <v>2.32</v>
+      </c>
+      <c r="BM12">
+        <v>1.99</v>
+      </c>
+      <c r="BN12">
+        <v>1.73</v>
+      </c>
+      <c r="BO12">
+        <v>2.55</v>
+      </c>
+      <c r="BP12">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7294968</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13">
+        <v>2.95</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>3.3</v>
+      </c>
+      <c r="T13">
+        <v>1.38</v>
+      </c>
+      <c r="U13">
+        <v>2.8</v>
+      </c>
+      <c r="V13">
+        <v>2.75</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>6.85</v>
+      </c>
+      <c r="Y13">
+        <v>1.08</v>
+      </c>
+      <c r="Z13">
+        <v>2.36</v>
+      </c>
+      <c r="AA13">
+        <v>3.2</v>
+      </c>
+      <c r="AB13">
+        <v>2.8</v>
+      </c>
+      <c r="AC13">
+        <v>1.05</v>
+      </c>
+      <c r="AD13">
+        <v>9</v>
+      </c>
+      <c r="AE13">
+        <v>1.28</v>
+      </c>
+      <c r="AF13">
+        <v>3.5</v>
+      </c>
+      <c r="AG13">
+        <v>1.77</v>
+      </c>
+      <c r="AH13">
+        <v>1.93</v>
+      </c>
+      <c r="AI13">
+        <v>1.67</v>
+      </c>
+      <c r="AJ13">
+        <v>2.05</v>
+      </c>
+      <c r="AK13">
+        <v>1.42</v>
+      </c>
+      <c r="AL13">
+        <v>1.32</v>
+      </c>
+      <c r="AM13">
+        <v>1.55</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>-1</v>
+      </c>
+      <c r="AV13">
+        <v>-1</v>
+      </c>
+      <c r="AW13">
+        <v>-1</v>
+      </c>
+      <c r="AX13">
+        <v>-1</v>
+      </c>
+      <c r="AY13">
+        <v>-1</v>
+      </c>
+      <c r="AZ13">
+        <v>-1</v>
+      </c>
+      <c r="BA13">
+        <v>-1</v>
+      </c>
+      <c r="BB13">
+        <v>-1</v>
+      </c>
+      <c r="BC13">
+        <v>-1</v>
+      </c>
+      <c r="BD13">
+        <v>2.05</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>1.95</v>
+      </c>
+      <c r="BG13">
+        <v>1.14</v>
+      </c>
+      <c r="BH13">
+        <v>4.65</v>
+      </c>
+      <c r="BI13">
+        <v>1.29</v>
+      </c>
+      <c r="BJ13">
+        <v>3.14</v>
+      </c>
+      <c r="BK13">
+        <v>1.46</v>
+      </c>
+      <c r="BL13">
+        <v>2.52</v>
+      </c>
+      <c r="BM13">
+        <v>1.85</v>
+      </c>
+      <c r="BN13">
+        <v>1.85</v>
+      </c>
+      <c r="BO13">
+        <v>2.33</v>
+      </c>
+      <c r="BP13">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7294965</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14">
+        <v>5.5</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1.29</v>
+      </c>
+      <c r="U14">
+        <v>3.5</v>
+      </c>
+      <c r="V14">
+        <v>2.25</v>
+      </c>
+      <c r="W14">
+        <v>1.57</v>
+      </c>
+      <c r="X14">
+        <v>5.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.14</v>
+      </c>
+      <c r="Z14">
+        <v>4.6</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>1.58</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>19</v>
+      </c>
+      <c r="AE14">
+        <v>1.14</v>
+      </c>
+      <c r="AF14">
+        <v>4.65</v>
+      </c>
+      <c r="AG14">
+        <v>1.58</v>
+      </c>
+      <c r="AH14">
+        <v>2.4</v>
+      </c>
+      <c r="AI14">
+        <v>1.7</v>
+      </c>
+      <c r="AJ14">
+        <v>2.05</v>
+      </c>
+      <c r="AK14">
+        <v>2.59</v>
+      </c>
+      <c r="AL14">
+        <v>1.2</v>
+      </c>
+      <c r="AM14">
+        <v>1.13</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>6</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
+      <c r="AZ14">
+        <v>10</v>
+      </c>
+      <c r="BA14">
+        <v>6</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>8</v>
+      </c>
+      <c r="BD14">
+        <v>4</v>
+      </c>
+      <c r="BE14">
+        <v>10</v>
+      </c>
+      <c r="BF14">
+        <v>1.33</v>
+      </c>
+      <c r="BG14">
+        <v>1.1</v>
+      </c>
+      <c r="BH14">
+        <v>5.35</v>
+      </c>
+      <c r="BI14">
+        <v>1.23</v>
+      </c>
+      <c r="BJ14">
+        <v>3.56</v>
+      </c>
+      <c r="BK14">
+        <v>1.41</v>
+      </c>
+      <c r="BL14">
+        <v>2.7</v>
+      </c>
+      <c r="BM14">
+        <v>1.73</v>
+      </c>
+      <c r="BN14">
+        <v>1.99</v>
+      </c>
+      <c r="BO14">
+        <v>2.17</v>
+      </c>
+      <c r="BP14">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7294966</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2.5</v>
+      </c>
+      <c r="S15">
+        <v>4.5</v>
+      </c>
+      <c r="T15">
+        <v>1.22</v>
+      </c>
+      <c r="U15">
+        <v>3.75</v>
+      </c>
+      <c r="V15">
+        <v>2.1</v>
+      </c>
+      <c r="W15">
+        <v>1.67</v>
+      </c>
+      <c r="X15">
+        <v>4.45</v>
+      </c>
+      <c r="Y15">
+        <v>1.18</v>
+      </c>
+      <c r="Z15">
+        <v>1.53</v>
+      </c>
+      <c r="AA15">
+        <v>4.2</v>
+      </c>
+      <c r="AB15">
+        <v>4.7</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+      <c r="AE15">
+        <v>1.13</v>
+      </c>
+      <c r="AF15">
+        <v>5.75</v>
+      </c>
+      <c r="AG15">
+        <v>1.42</v>
+      </c>
+      <c r="AH15">
+        <v>2.65</v>
+      </c>
+      <c r="AI15">
+        <v>1.48</v>
+      </c>
+      <c r="AJ15">
+        <v>2.45</v>
+      </c>
+      <c r="AK15">
+        <v>1.17</v>
+      </c>
+      <c r="AL15">
+        <v>1.15</v>
+      </c>
+      <c r="AM15">
+        <v>2.35</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>2</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <v>3</v>
+      </c>
+      <c r="AY15">
+        <v>5</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>2</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>6</v>
+      </c>
+      <c r="BD15">
+        <v>1.33</v>
+      </c>
+      <c r="BE15">
+        <v>9.5</v>
+      </c>
+      <c r="BF15">
+        <v>3.75</v>
+      </c>
+      <c r="BG15">
+        <v>1.15</v>
+      </c>
+      <c r="BH15">
+        <v>4.45</v>
+      </c>
+      <c r="BI15">
+        <v>1.28</v>
+      </c>
+      <c r="BJ15">
+        <v>3.35</v>
+      </c>
+      <c r="BK15">
+        <v>1.51</v>
+      </c>
+      <c r="BL15">
+        <v>2.37</v>
+      </c>
+      <c r="BM15">
+        <v>1.9</v>
+      </c>
+      <c r="BN15">
+        <v>1.8</v>
+      </c>
+      <c r="BO15">
+        <v>2.45</v>
+      </c>
+      <c r="BP15">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7294970</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45389.59375</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16">
+        <v>1.8</v>
+      </c>
+      <c r="R16">
+        <v>2.75</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>1.22</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1.73</v>
+      </c>
+      <c r="X16">
+        <v>4.33</v>
+      </c>
+      <c r="Y16">
+        <v>1.2</v>
+      </c>
+      <c r="Z16">
+        <v>1.34</v>
+      </c>
+      <c r="AA16">
+        <v>4.9</v>
+      </c>
+      <c r="AB16">
+        <v>6.4</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>12</v>
+      </c>
+      <c r="AE16">
+        <v>1.08</v>
+      </c>
+      <c r="AF16">
+        <v>5.85</v>
+      </c>
+      <c r="AG16">
+        <v>1.42</v>
+      </c>
+      <c r="AH16">
+        <v>2.65</v>
+      </c>
+      <c r="AI16">
+        <v>1.62</v>
+      </c>
+      <c r="AJ16">
+        <v>2.2</v>
+      </c>
+      <c r="AK16">
+        <v>1.09</v>
+      </c>
+      <c r="AL16">
+        <v>1.15</v>
+      </c>
+      <c r="AM16">
+        <v>3.1</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>10</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>16</v>
+      </c>
+      <c r="AZ16">
+        <v>4</v>
+      </c>
+      <c r="BA16">
+        <v>11</v>
+      </c>
+      <c r="BB16">
+        <v>2</v>
+      </c>
+      <c r="BC16">
+        <v>13</v>
+      </c>
+      <c r="BD16">
+        <v>1.26</v>
+      </c>
+      <c r="BE16">
+        <v>11.2</v>
+      </c>
+      <c r="BF16">
+        <v>4.75</v>
+      </c>
+      <c r="BG16">
+        <v>1.14</v>
+      </c>
+      <c r="BH16">
+        <v>4.6</v>
+      </c>
+      <c r="BI16">
+        <v>1.29</v>
+      </c>
+      <c r="BJ16">
+        <v>3.14</v>
+      </c>
+      <c r="BK16">
+        <v>1.54</v>
+      </c>
+      <c r="BL16">
+        <v>2.32</v>
+      </c>
+      <c r="BM16">
+        <v>1.91</v>
+      </c>
+      <c r="BN16">
+        <v>1.83</v>
+      </c>
+      <c r="BO16">
+        <v>2.44</v>
+      </c>
+      <c r="BP16">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -2702,16 +2702,16 @@
         <v>5</v>
       </c>
       <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
         <v>8</v>
       </c>
-      <c r="AX10">
-        <v>9</v>
-      </c>
-      <c r="AY10">
-        <v>14</v>
-      </c>
       <c r="AZ10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA10">
         <v>7</v>
@@ -3108,31 +3108,31 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12">
+        <v>6</v>
+      </c>
+      <c r="AX12">
         <v>4</v>
       </c>
-      <c r="AW12">
-        <v>5</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
       <c r="AY12">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
         <v>7</v>
-      </c>
-      <c r="AZ12">
-        <v>5</v>
       </c>
       <c r="BA12">
         <v>3</v>
       </c>
       <c r="BB12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD12">
         <v>1.95</v>
@@ -3314,31 +3314,31 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX13">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ13">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD13">
         <v>2.05</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW14">
         <v>4</v>
@@ -3532,19 +3532,19 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14">
         <v>2</v>
       </c>
       <c r="BC14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD14">
         <v>4</v>
@@ -3726,31 +3726,31 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY15">
+        <v>10</v>
+      </c>
+      <c r="AZ15">
+        <v>14</v>
+      </c>
+      <c r="BA15">
         <v>5</v>
       </c>
-      <c r="AZ15">
-        <v>7</v>
-      </c>
-      <c r="BA15">
-        <v>2</v>
-      </c>
       <c r="BB15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD15">
         <v>1.33</v>
@@ -3935,28 +3935,28 @@
         <v>6</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB16">
         <v>2</v>
       </c>
       <c r="BC16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD16">
         <v>1.26</v>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -256,18 +256,18 @@
     <t>Kristiansund</t>
   </si>
   <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
     <t>Strømsgodset</t>
   </si>
   <si>
-    <t>Haugesund</t>
+    <t>Sarpsborg 08</t>
   </si>
   <si>
     <t>HamKam</t>
   </si>
   <si>
-    <t>Sarpsborg 08</t>
-  </si>
-  <si>
     <t>Brann</t>
   </si>
   <si>
@@ -328,10 +328,10 @@
     <t>['13', '34']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['45']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['42', '72']</t>
@@ -931,7 +931,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2167,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7294967</v>
+        <v>7294968</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -2991,100 +2991,100 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q12">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="R12">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S12">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="T12">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="U12">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="V12">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X12">
-        <v>5.7</v>
+        <v>6.85</v>
       </c>
       <c r="Y12">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="Z12">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="AA12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB12">
         <v>2.8</v>
       </c>
       <c r="AC12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF12">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AG12">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="AH12">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AI12">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AJ12">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AK12">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AL12">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AM12">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3093,11 +3093,11 @@
         <v>0</v>
       </c>
       <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>3</v>
       </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
       <c r="AR12">
         <v>0</v>
       </c>
@@ -3108,70 +3108,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AZ12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>3</v>
       </c>
       <c r="BB12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD12">
+        <v>2.05</v>
+      </c>
+      <c r="BE12">
+        <v>8.5</v>
+      </c>
+      <c r="BF12">
         <v>1.95</v>
       </c>
-      <c r="BE12">
-        <v>8</v>
-      </c>
-      <c r="BF12">
-        <v>2.05</v>
-      </c>
       <c r="BG12">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="BH12">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="BI12">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BJ12">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="BK12">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="BL12">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="BM12">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="BN12">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO12">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BP12">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3179,7 +3179,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7294968</v>
+        <v>7294967</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3197,100 +3197,100 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" t="s">
         <v>87</v>
       </c>
-      <c r="P13" t="s">
-        <v>103</v>
-      </c>
       <c r="Q13">
+        <v>3.1</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
         <v>2.95</v>
       </c>
-      <c r="R13">
-        <v>2.1</v>
-      </c>
-      <c r="S13">
+      <c r="T13">
+        <v>1.33</v>
+      </c>
+      <c r="U13">
+        <v>3.1</v>
+      </c>
+      <c r="V13">
+        <v>2.4</v>
+      </c>
+      <c r="W13">
+        <v>1.5</v>
+      </c>
+      <c r="X13">
+        <v>5.7</v>
+      </c>
+      <c r="Y13">
+        <v>1.12</v>
+      </c>
+      <c r="Z13">
+        <v>2.26</v>
+      </c>
+      <c r="AA13">
         <v>3.3</v>
-      </c>
-      <c r="T13">
-        <v>1.38</v>
-      </c>
-      <c r="U13">
-        <v>2.8</v>
-      </c>
-      <c r="V13">
-        <v>2.75</v>
-      </c>
-      <c r="W13">
-        <v>1.4</v>
-      </c>
-      <c r="X13">
-        <v>6.85</v>
-      </c>
-      <c r="Y13">
-        <v>1.08</v>
-      </c>
-      <c r="Z13">
-        <v>2.36</v>
-      </c>
-      <c r="AA13">
-        <v>3.2</v>
       </c>
       <c r="AB13">
         <v>2.8</v>
       </c>
       <c r="AC13">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF13">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG13">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AH13">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AI13">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ13">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AK13">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AL13">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3299,85 +3299,85 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
         <v>3</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>2</v>
-      </c>
-      <c r="AV13">
-        <v>7</v>
-      </c>
       <c r="AW13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX13">
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA13">
         <v>3</v>
       </c>
       <c r="BB13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD13">
+        <v>1.95</v>
+      </c>
+      <c r="BE13">
+        <v>8</v>
+      </c>
+      <c r="BF13">
         <v>2.05</v>
       </c>
-      <c r="BE13">
-        <v>8.5</v>
-      </c>
-      <c r="BF13">
-        <v>1.95</v>
-      </c>
       <c r="BG13">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH13">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="BI13">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BJ13">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="BK13">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BL13">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="BM13">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="BN13">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BO13">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BP13">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3385,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7294965</v>
+        <v>7294966</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3403,7 +3403,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3430,73 +3430,73 @@
         <v>104</v>
       </c>
       <c r="Q14">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>2.5</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="T14">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U14">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V14">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W14">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X14">
-        <v>5.5</v>
+        <v>4.45</v>
       </c>
       <c r="Y14">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z14">
-        <v>4.6</v>
+        <v>1.53</v>
       </c>
       <c r="AA14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AB14">
-        <v>1.58</v>
+        <v>4.7</v>
       </c>
       <c r="AC14">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE14">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AF14">
-        <v>4.65</v>
+        <v>5.75</v>
       </c>
       <c r="AG14">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AH14">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AI14">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AJ14">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AK14">
-        <v>2.59</v>
+        <v>1.17</v>
       </c>
       <c r="AL14">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM14">
-        <v>1.13</v>
+        <v>2.35</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3520,70 +3520,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD14">
-        <v>4</v>
+        <v>1.33</v>
       </c>
       <c r="BE14">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BF14">
-        <v>1.33</v>
+        <v>3.75</v>
       </c>
       <c r="BG14">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="BH14">
-        <v>5.35</v>
+        <v>4.45</v>
       </c>
       <c r="BI14">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BJ14">
-        <v>3.56</v>
+        <v>3.35</v>
       </c>
       <c r="BK14">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="BL14">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="BM14">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BN14">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="BO14">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BP14">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3591,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7294966</v>
+        <v>7294965</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3609,7 +3609,7 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3636,73 +3636,73 @@
         <v>105</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="R15">
         <v>2.5</v>
       </c>
       <c r="S15">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U15">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V15">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W15">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X15">
-        <v>4.45</v>
+        <v>5.5</v>
       </c>
       <c r="Y15">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z15">
-        <v>1.53</v>
+        <v>4.6</v>
       </c>
       <c r="AA15">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>4.7</v>
+        <v>1.58</v>
       </c>
       <c r="AC15">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE15">
+        <v>1.14</v>
+      </c>
+      <c r="AF15">
+        <v>4.65</v>
+      </c>
+      <c r="AG15">
+        <v>1.58</v>
+      </c>
+      <c r="AH15">
+        <v>2.4</v>
+      </c>
+      <c r="AI15">
+        <v>1.7</v>
+      </c>
+      <c r="AJ15">
+        <v>2.05</v>
+      </c>
+      <c r="AK15">
+        <v>2.59</v>
+      </c>
+      <c r="AL15">
+        <v>1.2</v>
+      </c>
+      <c r="AM15">
         <v>1.13</v>
-      </c>
-      <c r="AF15">
-        <v>5.75</v>
-      </c>
-      <c r="AG15">
-        <v>1.42</v>
-      </c>
-      <c r="AH15">
-        <v>2.65</v>
-      </c>
-      <c r="AI15">
-        <v>1.48</v>
-      </c>
-      <c r="AJ15">
-        <v>2.45</v>
-      </c>
-      <c r="AK15">
-        <v>1.17</v>
-      </c>
-      <c r="AL15">
-        <v>1.15</v>
-      </c>
-      <c r="AM15">
-        <v>2.35</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3726,70 +3726,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV15">
+        <v>8</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>7</v>
+      </c>
+      <c r="AZ15">
+        <v>12</v>
+      </c>
+      <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
         <v>9</v>
       </c>
-      <c r="AW15">
-        <v>5</v>
-      </c>
-      <c r="AX15">
-        <v>5</v>
-      </c>
-      <c r="AY15">
+      <c r="BD15">
+        <v>4</v>
+      </c>
+      <c r="BE15">
         <v>10</v>
       </c>
-      <c r="AZ15">
-        <v>14</v>
-      </c>
-      <c r="BA15">
-        <v>5</v>
-      </c>
-      <c r="BB15">
-        <v>6</v>
-      </c>
-      <c r="BC15">
-        <v>11</v>
-      </c>
-      <c r="BD15">
+      <c r="BF15">
         <v>1.33</v>
       </c>
-      <c r="BE15">
-        <v>9.5</v>
-      </c>
-      <c r="BF15">
-        <v>3.75</v>
-      </c>
       <c r="BG15">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="BH15">
-        <v>4.45</v>
+        <v>5.35</v>
       </c>
       <c r="BI15">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="BJ15">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="BK15">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="BL15">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="BM15">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BN15">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="BO15">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="BP15">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="16" spans="1:68">

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,21 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['50', '90+2']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['27', '56']</t>
+  </si>
+  <si>
+    <t>['28', '90+7']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -335,6 +350,21 @@
   </si>
   <si>
     <t>['42', '72']</t>
+  </si>
+  <si>
+    <t>['5', '74']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['25', '58']</t>
+  </si>
+  <si>
+    <t>['11', '55', '59', '77', '82']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +985,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1033,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>3</v>
@@ -1161,7 +1191,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1239,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1573,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1654,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1779,7 +1809,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -1860,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2066,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2269,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2397,7 +2427,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2478,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2809,7 +2839,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3015,7 +3045,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3427,7 +3457,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3633,7 +3663,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3839,7 +3869,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -3996,6 +4026,1448 @@
       </c>
       <c r="BP16">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7294971</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17">
+        <v>3.1</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>3.2</v>
+      </c>
+      <c r="T17">
+        <v>1.42</v>
+      </c>
+      <c r="U17">
+        <v>2.75</v>
+      </c>
+      <c r="V17">
+        <v>2.95</v>
+      </c>
+      <c r="W17">
+        <v>1.37</v>
+      </c>
+      <c r="X17">
+        <v>7.6</v>
+      </c>
+      <c r="Y17">
+        <v>1.07</v>
+      </c>
+      <c r="Z17">
+        <v>2.54</v>
+      </c>
+      <c r="AA17">
+        <v>3.2</v>
+      </c>
+      <c r="AB17">
+        <v>2.67</v>
+      </c>
+      <c r="AC17">
+        <v>1.03</v>
+      </c>
+      <c r="AD17">
+        <v>8.4</v>
+      </c>
+      <c r="AE17">
+        <v>1.3</v>
+      </c>
+      <c r="AF17">
+        <v>3.1</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>1.73</v>
+      </c>
+      <c r="AI17">
+        <v>1.75</v>
+      </c>
+      <c r="AJ17">
+        <v>2.05</v>
+      </c>
+      <c r="AK17">
+        <v>1.4</v>
+      </c>
+      <c r="AL17">
+        <v>1.28</v>
+      </c>
+      <c r="AM17">
+        <v>1.42</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17">
+        <v>0.83</v>
+      </c>
+      <c r="AS17">
+        <v>1.26</v>
+      </c>
+      <c r="AT17">
+        <v>2.09</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>9</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>15</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>3</v>
+      </c>
+      <c r="BC17">
+        <v>9</v>
+      </c>
+      <c r="BD17">
+        <v>2.05</v>
+      </c>
+      <c r="BE17">
+        <v>8.5</v>
+      </c>
+      <c r="BF17">
+        <v>1.95</v>
+      </c>
+      <c r="BG17">
+        <v>1.16</v>
+      </c>
+      <c r="BH17">
+        <v>4.4</v>
+      </c>
+      <c r="BI17">
+        <v>1.32</v>
+      </c>
+      <c r="BJ17">
+        <v>2.98</v>
+      </c>
+      <c r="BK17">
+        <v>1.46</v>
+      </c>
+      <c r="BL17">
+        <v>2.52</v>
+      </c>
+      <c r="BM17">
+        <v>1.9</v>
+      </c>
+      <c r="BN17">
+        <v>1.8</v>
+      </c>
+      <c r="BO17">
+        <v>2.33</v>
+      </c>
+      <c r="BP17">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7294972</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45396.39583333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>2.9</v>
+      </c>
+      <c r="T18">
+        <v>1.28</v>
+      </c>
+      <c r="U18">
+        <v>3.4</v>
+      </c>
+      <c r="V18">
+        <v>2.2</v>
+      </c>
+      <c r="W18">
+        <v>1.6</v>
+      </c>
+      <c r="X18">
+        <v>4.9</v>
+      </c>
+      <c r="Y18">
+        <v>1.16</v>
+      </c>
+      <c r="Z18">
+        <v>2.7</v>
+      </c>
+      <c r="AA18">
+        <v>3.5</v>
+      </c>
+      <c r="AB18">
+        <v>2.41</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>1.17</v>
+      </c>
+      <c r="AF18">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <v>1.5</v>
+      </c>
+      <c r="AH18">
+        <v>2.4</v>
+      </c>
+      <c r="AI18">
+        <v>1.42</v>
+      </c>
+      <c r="AJ18">
+        <v>2.6</v>
+      </c>
+      <c r="AK18">
+        <v>1.5</v>
+      </c>
+      <c r="AL18">
+        <v>1.22</v>
+      </c>
+      <c r="AM18">
+        <v>1.45</v>
+      </c>
+      <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>1.5</v>
+      </c>
+      <c r="AS18">
+        <v>2.5</v>
+      </c>
+      <c r="AT18">
+        <v>4</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18">
+        <v>13</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>18</v>
+      </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
+      <c r="BB18">
+        <v>11</v>
+      </c>
+      <c r="BC18">
+        <v>14</v>
+      </c>
+      <c r="BD18">
+        <v>1.91</v>
+      </c>
+      <c r="BE18">
+        <v>8.5</v>
+      </c>
+      <c r="BF18">
+        <v>2.1</v>
+      </c>
+      <c r="BG18">
+        <v>1.1</v>
+      </c>
+      <c r="BH18">
+        <v>5.4</v>
+      </c>
+      <c r="BI18">
+        <v>1.23</v>
+      </c>
+      <c r="BJ18">
+        <v>3.56</v>
+      </c>
+      <c r="BK18">
+        <v>1.38</v>
+      </c>
+      <c r="BL18">
+        <v>2.8</v>
+      </c>
+      <c r="BM18">
+        <v>1.73</v>
+      </c>
+      <c r="BN18">
+        <v>2</v>
+      </c>
+      <c r="BO18">
+        <v>2.15</v>
+      </c>
+      <c r="BP18">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7294973</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19">
+        <v>2.2</v>
+      </c>
+      <c r="R19">
+        <v>2.25</v>
+      </c>
+      <c r="S19">
+        <v>4.5</v>
+      </c>
+      <c r="T19">
+        <v>1.33</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2.55</v>
+      </c>
+      <c r="W19">
+        <v>1.45</v>
+      </c>
+      <c r="X19">
+        <v>6.25</v>
+      </c>
+      <c r="Y19">
+        <v>1.1</v>
+      </c>
+      <c r="Z19">
+        <v>1.6</v>
+      </c>
+      <c r="AA19">
+        <v>4.13</v>
+      </c>
+      <c r="AB19">
+        <v>5.47</v>
+      </c>
+      <c r="AC19">
+        <v>1.04</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>1.25</v>
+      </c>
+      <c r="AF19">
+        <v>3.95</v>
+      </c>
+      <c r="AG19">
+        <v>1.83</v>
+      </c>
+      <c r="AH19">
+        <v>2.03</v>
+      </c>
+      <c r="AI19">
+        <v>1.79</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>1.18</v>
+      </c>
+      <c r="AL19">
+        <v>1.2</v>
+      </c>
+      <c r="AM19">
+        <v>2.1</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>1.53</v>
+      </c>
+      <c r="AS19">
+        <v>0.72</v>
+      </c>
+      <c r="AT19">
+        <v>2.25</v>
+      </c>
+      <c r="AU19">
+        <v>-1</v>
+      </c>
+      <c r="AV19">
+        <v>-1</v>
+      </c>
+      <c r="AW19">
+        <v>-1</v>
+      </c>
+      <c r="AX19">
+        <v>-1</v>
+      </c>
+      <c r="AY19">
+        <v>-1</v>
+      </c>
+      <c r="AZ19">
+        <v>-1</v>
+      </c>
+      <c r="BA19">
+        <v>-1</v>
+      </c>
+      <c r="BB19">
+        <v>-1</v>
+      </c>
+      <c r="BC19">
+        <v>-1</v>
+      </c>
+      <c r="BD19">
+        <v>1.5</v>
+      </c>
+      <c r="BE19">
+        <v>8.5</v>
+      </c>
+      <c r="BF19">
+        <v>3.1</v>
+      </c>
+      <c r="BG19">
+        <v>1.21</v>
+      </c>
+      <c r="BH19">
+        <v>3.74</v>
+      </c>
+      <c r="BI19">
+        <v>1.48</v>
+      </c>
+      <c r="BJ19">
+        <v>2.47</v>
+      </c>
+      <c r="BK19">
+        <v>1.8</v>
+      </c>
+      <c r="BL19">
+        <v>1.9</v>
+      </c>
+      <c r="BM19">
+        <v>2.37</v>
+      </c>
+      <c r="BN19">
+        <v>1.51</v>
+      </c>
+      <c r="BO19">
+        <v>3.2</v>
+      </c>
+      <c r="BP19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7294974</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20">
+        <v>1.62</v>
+      </c>
+      <c r="R20">
+        <v>2.95</v>
+      </c>
+      <c r="S20">
+        <v>6.25</v>
+      </c>
+      <c r="T20">
+        <v>1.18</v>
+      </c>
+      <c r="U20">
+        <v>4.6</v>
+      </c>
+      <c r="V20">
+        <v>1.89</v>
+      </c>
+      <c r="W20">
+        <v>1.86</v>
+      </c>
+      <c r="X20">
+        <v>3.72</v>
+      </c>
+      <c r="Y20">
+        <v>1.25</v>
+      </c>
+      <c r="Z20">
+        <v>1.31</v>
+      </c>
+      <c r="AA20">
+        <v>6.09</v>
+      </c>
+      <c r="AB20">
+        <v>8.25</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>34</v>
+      </c>
+      <c r="AE20">
+        <v>1.06</v>
+      </c>
+      <c r="AF20">
+        <v>6.8</v>
+      </c>
+      <c r="AG20">
+        <v>1.36</v>
+      </c>
+      <c r="AH20">
+        <v>2.9</v>
+      </c>
+      <c r="AI20">
+        <v>1.62</v>
+      </c>
+      <c r="AJ20">
+        <v>2.1</v>
+      </c>
+      <c r="AK20">
+        <v>1.08</v>
+      </c>
+      <c r="AL20">
+        <v>1.13</v>
+      </c>
+      <c r="AM20">
+        <v>3.7</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>1.5</v>
+      </c>
+      <c r="AR20">
+        <v>2.32</v>
+      </c>
+      <c r="AS20">
+        <v>0.99</v>
+      </c>
+      <c r="AT20">
+        <v>3.31</v>
+      </c>
+      <c r="AU20">
+        <v>5</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>3</v>
+      </c>
+      <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
+        <v>3</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>8</v>
+      </c>
+      <c r="BD20">
+        <v>1.17</v>
+      </c>
+      <c r="BE20">
+        <v>12</v>
+      </c>
+      <c r="BF20">
+        <v>6</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>1.12</v>
+      </c>
+      <c r="BJ20">
+        <v>4.9</v>
+      </c>
+      <c r="BK20">
+        <v>1.28</v>
+      </c>
+      <c r="BL20">
+        <v>3.35</v>
+      </c>
+      <c r="BM20">
+        <v>1.45</v>
+      </c>
+      <c r="BN20">
+        <v>2.55</v>
+      </c>
+      <c r="BO20">
+        <v>1.77</v>
+      </c>
+      <c r="BP20">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7294975</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21">
+        <v>2.35</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>4.4</v>
+      </c>
+      <c r="T21">
+        <v>1.38</v>
+      </c>
+      <c r="U21">
+        <v>2.91</v>
+      </c>
+      <c r="V21">
+        <v>2.75</v>
+      </c>
+      <c r="W21">
+        <v>1.42</v>
+      </c>
+      <c r="X21">
+        <v>6.85</v>
+      </c>
+      <c r="Y21">
+        <v>1.08</v>
+      </c>
+      <c r="Z21">
+        <v>1.96</v>
+      </c>
+      <c r="AA21">
+        <v>3.59</v>
+      </c>
+      <c r="AB21">
+        <v>3.88</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>9.4</v>
+      </c>
+      <c r="AE21">
+        <v>1.25</v>
+      </c>
+      <c r="AF21">
+        <v>3.42</v>
+      </c>
+      <c r="AG21">
+        <v>1.9</v>
+      </c>
+      <c r="AH21">
+        <v>1.95</v>
+      </c>
+      <c r="AI21">
+        <v>1.78</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>1.22</v>
+      </c>
+      <c r="AL21">
+        <v>1.22</v>
+      </c>
+      <c r="AM21">
+        <v>1.95</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>1.91</v>
+      </c>
+      <c r="AS21">
+        <v>1.29</v>
+      </c>
+      <c r="AT21">
+        <v>3.2</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>2</v>
+      </c>
+      <c r="AZ21">
+        <v>9</v>
+      </c>
+      <c r="BA21">
+        <v>2</v>
+      </c>
+      <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>4</v>
+      </c>
+      <c r="BD21">
+        <v>1.5</v>
+      </c>
+      <c r="BE21">
+        <v>9</v>
+      </c>
+      <c r="BF21">
+        <v>3</v>
+      </c>
+      <c r="BG21">
+        <v>1.13</v>
+      </c>
+      <c r="BH21">
+        <v>4.75</v>
+      </c>
+      <c r="BI21">
+        <v>1.28</v>
+      </c>
+      <c r="BJ21">
+        <v>3.2</v>
+      </c>
+      <c r="BK21">
+        <v>1.48</v>
+      </c>
+      <c r="BL21">
+        <v>2.47</v>
+      </c>
+      <c r="BM21">
+        <v>1.85</v>
+      </c>
+      <c r="BN21">
+        <v>1.85</v>
+      </c>
+      <c r="BO21">
+        <v>2.35</v>
+      </c>
+      <c r="BP21">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7294976</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22">
+        <v>2.1</v>
+      </c>
+      <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>4.75</v>
+      </c>
+      <c r="T22">
+        <v>1.32</v>
+      </c>
+      <c r="U22">
+        <v>3.22</v>
+      </c>
+      <c r="V22">
+        <v>2.49</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>5.95</v>
+      </c>
+      <c r="Y22">
+        <v>1.11</v>
+      </c>
+      <c r="Z22">
+        <v>1.78</v>
+      </c>
+      <c r="AA22">
+        <v>3.74</v>
+      </c>
+      <c r="AB22">
+        <v>4.62</v>
+      </c>
+      <c r="AC22">
+        <v>1.04</v>
+      </c>
+      <c r="AD22">
+        <v>10.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.19</v>
+      </c>
+      <c r="AF22">
+        <v>3.94</v>
+      </c>
+      <c r="AG22">
+        <v>1.95</v>
+      </c>
+      <c r="AH22">
+        <v>1.9</v>
+      </c>
+      <c r="AI22">
+        <v>1.67</v>
+      </c>
+      <c r="AJ22">
+        <v>2.05</v>
+      </c>
+      <c r="AK22">
+        <v>1.14</v>
+      </c>
+      <c r="AL22">
+        <v>1.18</v>
+      </c>
+      <c r="AM22">
+        <v>2.3</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22">
+        <v>1.3</v>
+      </c>
+      <c r="AS22">
+        <v>0.95</v>
+      </c>
+      <c r="AT22">
+        <v>2.25</v>
+      </c>
+      <c r="AU22">
+        <v>2</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>6</v>
+      </c>
+      <c r="AX22">
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>8</v>
+      </c>
+      <c r="BA22">
+        <v>4</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>8</v>
+      </c>
+      <c r="BD22">
+        <v>1.33</v>
+      </c>
+      <c r="BE22">
+        <v>10</v>
+      </c>
+      <c r="BF22">
+        <v>3.75</v>
+      </c>
+      <c r="BG22">
+        <v>1.1</v>
+      </c>
+      <c r="BH22">
+        <v>5.35</v>
+      </c>
+      <c r="BI22">
+        <v>1.24</v>
+      </c>
+      <c r="BJ22">
+        <v>3.7</v>
+      </c>
+      <c r="BK22">
+        <v>1.41</v>
+      </c>
+      <c r="BL22">
+        <v>2.7</v>
+      </c>
+      <c r="BM22">
+        <v>1.77</v>
+      </c>
+      <c r="BN22">
+        <v>1.95</v>
+      </c>
+      <c r="BO22">
+        <v>2.17</v>
+      </c>
+      <c r="BP22">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7294977</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45396.59375</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>2.25</v>
+      </c>
+      <c r="S23">
+        <v>2.35</v>
+      </c>
+      <c r="T23">
+        <v>1.3</v>
+      </c>
+      <c r="U23">
+        <v>3.2</v>
+      </c>
+      <c r="V23">
+        <v>2.35</v>
+      </c>
+      <c r="W23">
+        <v>1.53</v>
+      </c>
+      <c r="X23">
+        <v>5.65</v>
+      </c>
+      <c r="Y23">
+        <v>1.12</v>
+      </c>
+      <c r="Z23">
+        <v>4.23</v>
+      </c>
+      <c r="AA23">
+        <v>4.1</v>
+      </c>
+      <c r="AB23">
+        <v>1.76</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>12</v>
+      </c>
+      <c r="AE23">
+        <v>1.17</v>
+      </c>
+      <c r="AF23">
+        <v>4.3</v>
+      </c>
+      <c r="AG23">
+        <v>1.58</v>
+      </c>
+      <c r="AH23">
+        <v>2.37</v>
+      </c>
+      <c r="AI23">
+        <v>1.53</v>
+      </c>
+      <c r="AJ23">
+        <v>2.3</v>
+      </c>
+      <c r="AK23">
+        <v>1.93</v>
+      </c>
+      <c r="AL23">
+        <v>1.2</v>
+      </c>
+      <c r="AM23">
+        <v>1.22</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>2.02</v>
+      </c>
+      <c r="AS23">
+        <v>1.47</v>
+      </c>
+      <c r="AT23">
+        <v>3.49</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>5</v>
+      </c>
+      <c r="AZ23">
+        <v>5</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>3</v>
+      </c>
+      <c r="BD23">
+        <v>2.6</v>
+      </c>
+      <c r="BE23">
+        <v>8.5</v>
+      </c>
+      <c r="BF23">
+        <v>1.62</v>
+      </c>
+      <c r="BG23">
+        <v>1.18</v>
+      </c>
+      <c r="BH23">
+        <v>4.15</v>
+      </c>
+      <c r="BI23">
+        <v>1.43</v>
+      </c>
+      <c r="BJ23">
+        <v>2.62</v>
+      </c>
+      <c r="BK23">
+        <v>1.73</v>
+      </c>
+      <c r="BL23">
+        <v>2</v>
+      </c>
+      <c r="BM23">
+        <v>2.22</v>
+      </c>
+      <c r="BN23">
+        <v>1.59</v>
+      </c>
+      <c r="BO23">
+        <v>2.95</v>
+      </c>
+      <c r="BP23">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -4168,22 +4168,22 @@
         <v>2.09</v>
       </c>
       <c r="AU17">
+        <v>7</v>
+      </c>
+      <c r="AV17">
         <v>6</v>
       </c>
-      <c r="AV17">
-        <v>4</v>
-      </c>
       <c r="AW17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX17">
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -4580,31 +4580,31 @@
         <v>2.25</v>
       </c>
       <c r="AU19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY19">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD19">
         <v>1.5</v>
@@ -4786,31 +4786,31 @@
         <v>3.31</v>
       </c>
       <c r="AU20">
+        <v>8</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
         <v>5</v>
       </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>4</v>
-      </c>
       <c r="AX20">
         <v>3</v>
       </c>
       <c r="AY20">
+        <v>13</v>
+      </c>
+      <c r="AZ20">
+        <v>3</v>
+      </c>
+      <c r="BA20">
         <v>9</v>
       </c>
-      <c r="AZ20">
-        <v>3</v>
-      </c>
-      <c r="BA20">
-        <v>7</v>
-      </c>
       <c r="BB20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD20">
         <v>1.17</v>
@@ -4992,31 +4992,31 @@
         <v>3.2</v>
       </c>
       <c r="AU21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA21">
         <v>2</v>
       </c>
       <c r="BB21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD21">
         <v>1.5</v>
@@ -5201,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="AV22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW22">
         <v>6</v>
@@ -5213,16 +5213,16 @@
         <v>8</v>
       </c>
       <c r="AZ22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA22">
         <v>4</v>
       </c>
       <c r="BB22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD22">
         <v>1.33</v>
@@ -5404,7 +5404,7 @@
         <v>3.49</v>
       </c>
       <c r="AU23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -5413,22 +5413,22 @@
         <v>2</v>
       </c>
       <c r="AX23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA23">
         <v>2</v>
       </c>
       <c r="BB23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23">
         <v>2.6</v>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -5407,19 +5407,19 @@
         <v>4</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW23">
         <v>2</v>
       </c>
       <c r="AX23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY23">
         <v>6</v>
       </c>
       <c r="AZ23">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,15 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -365,6 +374,12 @@
   </si>
   <si>
     <t>['11', '55', '59', '77', '82']</t>
+  </si>
+  <si>
+    <t>['7', '42', '85']</t>
+  </si>
+  <si>
+    <t>['35', '70']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +1000,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1191,7 +1206,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1475,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1603,7 +1618,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1809,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2427,7 +2442,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2505,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2839,7 +2854,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3045,7 +3060,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3457,7 +3472,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3663,7 +3678,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3869,7 +3884,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -3947,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4075,7 +4090,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4281,7 +4296,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4487,7 +4502,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4771,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -4899,7 +4914,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5186,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5311,7 +5326,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5468,6 +5483,624 @@
       </c>
       <c r="BP23">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7294978</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45398.58333333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24">
+        <v>3.2</v>
+      </c>
+      <c r="R24">
+        <v>2.1</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1.36</v>
+      </c>
+      <c r="U24">
+        <v>2.88</v>
+      </c>
+      <c r="V24">
+        <v>2.65</v>
+      </c>
+      <c r="W24">
+        <v>1.42</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.1</v>
+      </c>
+      <c r="Z24">
+        <v>2.58</v>
+      </c>
+      <c r="AA24">
+        <v>3.4</v>
+      </c>
+      <c r="AB24">
+        <v>2.51</v>
+      </c>
+      <c r="AC24">
+        <v>1.05</v>
+      </c>
+      <c r="AD24">
+        <v>9.5</v>
+      </c>
+      <c r="AE24">
+        <v>1.25</v>
+      </c>
+      <c r="AF24">
+        <v>3.75</v>
+      </c>
+      <c r="AG24">
+        <v>1.86</v>
+      </c>
+      <c r="AH24">
+        <v>2</v>
+      </c>
+      <c r="AI24">
+        <v>1.62</v>
+      </c>
+      <c r="AJ24">
+        <v>2.1</v>
+      </c>
+      <c r="AK24">
+        <v>1.53</v>
+      </c>
+      <c r="AL24">
+        <v>1.25</v>
+      </c>
+      <c r="AM24">
+        <v>1.45</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>1.5</v>
+      </c>
+      <c r="AR24">
+        <v>2.18</v>
+      </c>
+      <c r="AS24">
+        <v>1.25</v>
+      </c>
+      <c r="AT24">
+        <v>3.43</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>13</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>16</v>
+      </c>
+      <c r="BD24">
+        <v>1.91</v>
+      </c>
+      <c r="BE24">
+        <v>8</v>
+      </c>
+      <c r="BF24">
+        <v>2.1</v>
+      </c>
+      <c r="BG24">
+        <v>1.18</v>
+      </c>
+      <c r="BH24">
+        <v>4.35</v>
+      </c>
+      <c r="BI24">
+        <v>1.31</v>
+      </c>
+      <c r="BJ24">
+        <v>3.15</v>
+      </c>
+      <c r="BK24">
+        <v>1.57</v>
+      </c>
+      <c r="BL24">
+        <v>2.25</v>
+      </c>
+      <c r="BM24">
+        <v>2</v>
+      </c>
+      <c r="BN24">
+        <v>1.73</v>
+      </c>
+      <c r="BO24">
+        <v>2.6</v>
+      </c>
+      <c r="BP24">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7295091</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45399.54166666666</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25">
+        <v>1.91</v>
+      </c>
+      <c r="R25">
+        <v>2.6</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>1.25</v>
+      </c>
+      <c r="U25">
+        <v>3.75</v>
+      </c>
+      <c r="V25">
+        <v>2.2</v>
+      </c>
+      <c r="W25">
+        <v>1.62</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>1.17</v>
+      </c>
+      <c r="Z25">
+        <v>1.32</v>
+      </c>
+      <c r="AA25">
+        <v>5.2</v>
+      </c>
+      <c r="AB25">
+        <v>7.7</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>21</v>
+      </c>
+      <c r="AE25">
+        <v>1.17</v>
+      </c>
+      <c r="AF25">
+        <v>5</v>
+      </c>
+      <c r="AG25">
+        <v>1.58</v>
+      </c>
+      <c r="AH25">
+        <v>2.4</v>
+      </c>
+      <c r="AI25">
+        <v>1.7</v>
+      </c>
+      <c r="AJ25">
+        <v>2.05</v>
+      </c>
+      <c r="AK25">
+        <v>1.09</v>
+      </c>
+      <c r="AL25">
+        <v>1.14</v>
+      </c>
+      <c r="AM25">
+        <v>2.8</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>2.06</v>
+      </c>
+      <c r="AS25">
+        <v>1.81</v>
+      </c>
+      <c r="AT25">
+        <v>3.87</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>8</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>3</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>3</v>
+      </c>
+      <c r="BD25">
+        <v>1.25</v>
+      </c>
+      <c r="BE25">
+        <v>10</v>
+      </c>
+      <c r="BF25">
+        <v>4.33</v>
+      </c>
+      <c r="BG25">
+        <v>1.18</v>
+      </c>
+      <c r="BH25">
+        <v>4.5</v>
+      </c>
+      <c r="BI25">
+        <v>1.32</v>
+      </c>
+      <c r="BJ25">
+        <v>3.1</v>
+      </c>
+      <c r="BK25">
+        <v>1.57</v>
+      </c>
+      <c r="BL25">
+        <v>2.25</v>
+      </c>
+      <c r="BM25">
+        <v>1.95</v>
+      </c>
+      <c r="BN25">
+        <v>1.77</v>
+      </c>
+      <c r="BO25">
+        <v>2.55</v>
+      </c>
+      <c r="BP25">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7295082</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45399.54166666666</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26">
+        <v>1.83</v>
+      </c>
+      <c r="R26">
+        <v>2.63</v>
+      </c>
+      <c r="S26">
+        <v>6.5</v>
+      </c>
+      <c r="T26">
+        <v>1.22</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>2.1</v>
+      </c>
+      <c r="W26">
+        <v>1.67</v>
+      </c>
+      <c r="X26">
+        <v>4.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.18</v>
+      </c>
+      <c r="Z26">
+        <v>1.31</v>
+      </c>
+      <c r="AA26">
+        <v>5.3</v>
+      </c>
+      <c r="AB26">
+        <v>7.8</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>22.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.15</v>
+      </c>
+      <c r="AF26">
+        <v>5.25</v>
+      </c>
+      <c r="AG26">
+        <v>1.5</v>
+      </c>
+      <c r="AH26">
+        <v>2.4</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.07</v>
+      </c>
+      <c r="AL26">
+        <v>1.13</v>
+      </c>
+      <c r="AM26">
+        <v>2.95</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0.5</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>0.33</v>
+      </c>
+      <c r="AR26">
+        <v>2.34</v>
+      </c>
+      <c r="AS26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT26">
+        <v>3.28</v>
+      </c>
+      <c r="AU26">
+        <v>3</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>8</v>
+      </c>
+      <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>19</v>
+      </c>
+      <c r="BB26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
+        <v>24</v>
+      </c>
+      <c r="BD26">
+        <v>1.17</v>
+      </c>
+      <c r="BE26">
+        <v>12</v>
+      </c>
+      <c r="BF26">
+        <v>6</v>
+      </c>
+      <c r="BG26">
+        <v>1.11</v>
+      </c>
+      <c r="BH26">
+        <v>6.1</v>
+      </c>
+      <c r="BI26">
+        <v>1.22</v>
+      </c>
+      <c r="BJ26">
+        <v>4</v>
+      </c>
+      <c r="BK26">
+        <v>1.48</v>
+      </c>
+      <c r="BL26">
+        <v>2.47</v>
+      </c>
+      <c r="BM26">
+        <v>1.77</v>
+      </c>
+      <c r="BN26">
+        <v>1.95</v>
+      </c>
+      <c r="BO26">
+        <v>2.27</v>
+      </c>
+      <c r="BP26">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -325,10 +325,10 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['33']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -5625,22 +5625,22 @@
         <v>3.43</v>
       </c>
       <c r="AU24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA24">
         <v>13</v>
@@ -5696,7 +5696,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7295091</v>
+        <v>7295082</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5708,193 +5708,193 @@
         <v>45399.54166666666</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="Q25">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="R25">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T25">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W25">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X25">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y25">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z25">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AA25">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB25">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC25">
         <v>1.02</v>
       </c>
       <c r="AD25">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="AE25">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF25">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="AG25">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AH25">
         <v>2.4</v>
       </c>
       <c r="AI25">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ25">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK25">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AL25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AM25">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="AS25">
-        <v>1.81</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT25">
-        <v>3.87</v>
+        <v>3.28</v>
       </c>
       <c r="AU25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>11</v>
+      </c>
+      <c r="AZ25">
+        <v>9</v>
+      </c>
+      <c r="BA25">
+        <v>19</v>
+      </c>
+      <c r="BB25">
         <v>6</v>
       </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>8</v>
-      </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>3</v>
-      </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
       <c r="BC25">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BD25">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="BE25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF25">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="BG25">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="BH25">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="BI25">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="BJ25">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="BK25">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL25">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="BM25">
+        <v>1.77</v>
+      </c>
+      <c r="BN25">
         <v>1.95</v>
       </c>
-      <c r="BN25">
-        <v>1.77</v>
-      </c>
       <c r="BO25">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="BP25">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -5902,7 +5902,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7295082</v>
+        <v>7295091</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5914,193 +5914,193 @@
         <v>45399.54166666666</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="Q26">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R26">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="S26">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W26">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X26">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z26">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AA26">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB26">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AC26">
         <v>1.02</v>
       </c>
       <c r="AD26">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="AE26">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AF26">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AG26">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AH26">
         <v>2.4</v>
       </c>
       <c r="AI26">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ26">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK26">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AL26">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AM26">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AR26">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="AS26">
-        <v>0.9399999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="AT26">
-        <v>3.28</v>
+        <v>3.87</v>
       </c>
       <c r="AU26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>9</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>13</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
         <v>5</v>
       </c>
-      <c r="AW26">
-        <v>8</v>
-      </c>
-      <c r="AX26">
-        <v>3</v>
-      </c>
-      <c r="AY26">
-        <v>11</v>
-      </c>
-      <c r="AZ26">
-        <v>8</v>
-      </c>
-      <c r="BA26">
-        <v>19</v>
-      </c>
       <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
         <v>5</v>
       </c>
-      <c r="BC26">
-        <v>24</v>
-      </c>
       <c r="BD26">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="BE26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BF26">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="BG26">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="BH26">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="BI26">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="BJ26">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="BK26">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BL26">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="BM26">
+        <v>1.95</v>
+      </c>
+      <c r="BN26">
         <v>1.77</v>
       </c>
-      <c r="BN26">
-        <v>1.95</v>
-      </c>
       <c r="BO26">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="BP26">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -5831,22 +5831,22 @@
         <v>3.28</v>
       </c>
       <c r="AU25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA25">
         <v>19</v>
@@ -6037,10 +6037,10 @@
         <v>3.87</v>
       </c>
       <c r="AU26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW26">
         <v>9</v>
@@ -6049,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA26">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['29', '90+4']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -380,6 +389,21 @@
   </si>
   <si>
     <t>['35', '70']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['16', '45+3']</t>
+  </si>
+  <si>
+    <t>['10', '43', '90+6']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1024,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1206,7 +1230,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1493,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1618,7 +1642,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1824,7 +1848,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2314,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2442,7 +2466,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2726,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2854,7 +2878,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2932,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3060,7 +3084,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3347,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3472,7 +3496,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3553,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3678,7 +3702,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3759,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3884,7 +3908,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -3962,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4090,7 +4114,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4296,7 +4320,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4374,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4502,7 +4526,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4914,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5326,7 +5350,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5532,7 +5556,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5613,7 +5637,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -5816,7 +5840,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -5944,7 +5968,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6025,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6101,6 +6125,1654 @@
       </c>
       <c r="BP26">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7294979</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45403.39583333334</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27">
+        <v>3.2</v>
+      </c>
+      <c r="R27">
+        <v>2.28</v>
+      </c>
+      <c r="S27">
+        <v>3.41</v>
+      </c>
+      <c r="T27">
+        <v>1.38</v>
+      </c>
+      <c r="U27">
+        <v>3.14</v>
+      </c>
+      <c r="V27">
+        <v>2.84</v>
+      </c>
+      <c r="W27">
+        <v>1.45</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>2.65</v>
+      </c>
+      <c r="AA27">
+        <v>3.4</v>
+      </c>
+      <c r="AB27">
+        <v>2.45</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE27">
+        <v>1.24</v>
+      </c>
+      <c r="AF27">
+        <v>3.5</v>
+      </c>
+      <c r="AG27">
+        <v>1.8</v>
+      </c>
+      <c r="AH27">
+        <v>1.91</v>
+      </c>
+      <c r="AI27">
+        <v>1.66</v>
+      </c>
+      <c r="AJ27">
+        <v>2.27</v>
+      </c>
+      <c r="AK27">
+        <v>1.47</v>
+      </c>
+      <c r="AL27">
+        <v>1.33</v>
+      </c>
+      <c r="AM27">
+        <v>1.53</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>1.5</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>1.08</v>
+      </c>
+      <c r="AS27">
+        <v>1.4</v>
+      </c>
+      <c r="AT27">
+        <v>2.48</v>
+      </c>
+      <c r="AU27">
+        <v>6</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>5</v>
+      </c>
+      <c r="AY27">
+        <v>12</v>
+      </c>
+      <c r="AZ27">
+        <v>10</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>5</v>
+      </c>
+      <c r="BC27">
+        <v>11</v>
+      </c>
+      <c r="BD27">
+        <v>1.87</v>
+      </c>
+      <c r="BE27">
+        <v>9.6</v>
+      </c>
+      <c r="BF27">
+        <v>2.2</v>
+      </c>
+      <c r="BG27">
+        <v>1.09</v>
+      </c>
+      <c r="BH27">
+        <v>5.65</v>
+      </c>
+      <c r="BI27">
+        <v>1.21</v>
+      </c>
+      <c r="BJ27">
+        <v>3.74</v>
+      </c>
+      <c r="BK27">
+        <v>1.41</v>
+      </c>
+      <c r="BL27">
+        <v>2.69</v>
+      </c>
+      <c r="BM27">
+        <v>1.76</v>
+      </c>
+      <c r="BN27">
+        <v>2.07</v>
+      </c>
+      <c r="BO27">
+        <v>2.16</v>
+      </c>
+      <c r="BP27">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7294980</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28">
+        <v>3.5</v>
+      </c>
+      <c r="R28">
+        <v>2.15</v>
+      </c>
+      <c r="S28">
+        <v>2.75</v>
+      </c>
+      <c r="T28">
+        <v>1.35</v>
+      </c>
+      <c r="U28">
+        <v>2.95</v>
+      </c>
+      <c r="V28">
+        <v>2.6</v>
+      </c>
+      <c r="W28">
+        <v>1.45</v>
+      </c>
+      <c r="X28">
+        <v>5.75</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>3.5</v>
+      </c>
+      <c r="AB28">
+        <v>2.1</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>13</v>
+      </c>
+      <c r="AE28">
+        <v>1.26</v>
+      </c>
+      <c r="AF28">
+        <v>3.93</v>
+      </c>
+      <c r="AG28">
+        <v>1.77</v>
+      </c>
+      <c r="AH28">
+        <v>1.9</v>
+      </c>
+      <c r="AI28">
+        <v>1.62</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1</v>
+      </c>
+      <c r="AK28">
+        <v>1.62</v>
+      </c>
+      <c r="AL28">
+        <v>1.32</v>
+      </c>
+      <c r="AM28">
+        <v>1.38</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>3</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>1.68</v>
+      </c>
+      <c r="AT28">
+        <v>1.68</v>
+      </c>
+      <c r="AU28">
+        <v>3</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>7</v>
+      </c>
+      <c r="AZ28">
+        <v>8</v>
+      </c>
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>10</v>
+      </c>
+      <c r="BD28">
+        <v>2.46</v>
+      </c>
+      <c r="BE28">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF28">
+        <v>1.71</v>
+      </c>
+      <c r="BG28">
+        <v>1.09</v>
+      </c>
+      <c r="BH28">
+        <v>5.6</v>
+      </c>
+      <c r="BI28">
+        <v>1.22</v>
+      </c>
+      <c r="BJ28">
+        <v>3.65</v>
+      </c>
+      <c r="BK28">
+        <v>1.42</v>
+      </c>
+      <c r="BL28">
+        <v>2.65</v>
+      </c>
+      <c r="BM28">
+        <v>1.75</v>
+      </c>
+      <c r="BN28">
+        <v>2.09</v>
+      </c>
+      <c r="BO28">
+        <v>2.13</v>
+      </c>
+      <c r="BP28">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7294981</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29">
+        <v>2.2</v>
+      </c>
+      <c r="R29">
+        <v>2.4</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>3.4</v>
+      </c>
+      <c r="V29">
+        <v>2.5</v>
+      </c>
+      <c r="W29">
+        <v>1.5</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>1.13</v>
+      </c>
+      <c r="Z29">
+        <v>1.5</v>
+      </c>
+      <c r="AA29">
+        <v>4.2</v>
+      </c>
+      <c r="AB29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>16</v>
+      </c>
+      <c r="AE29">
+        <v>1.2</v>
+      </c>
+      <c r="AF29">
+        <v>4.57</v>
+      </c>
+      <c r="AG29">
+        <v>1.56</v>
+      </c>
+      <c r="AH29">
+        <v>2.24</v>
+      </c>
+      <c r="AI29">
+        <v>1.7</v>
+      </c>
+      <c r="AJ29">
+        <v>2.05</v>
+      </c>
+      <c r="AK29">
+        <v>1.17</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>2.25</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.39</v>
+      </c>
+      <c r="AS29">
+        <v>1.52</v>
+      </c>
+      <c r="AT29">
+        <v>2.91</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>5</v>
+      </c>
+      <c r="AW29">
+        <v>6</v>
+      </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>10</v>
+      </c>
+      <c r="AZ29">
+        <v>7</v>
+      </c>
+      <c r="BA29">
+        <v>8</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>9</v>
+      </c>
+      <c r="BD29">
+        <v>1.5</v>
+      </c>
+      <c r="BE29">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF29">
+        <v>3.08</v>
+      </c>
+      <c r="BG29">
+        <v>1.15</v>
+      </c>
+      <c r="BH29">
+        <v>4.5</v>
+      </c>
+      <c r="BI29">
+        <v>1.31</v>
+      </c>
+      <c r="BJ29">
+        <v>3.04</v>
+      </c>
+      <c r="BK29">
+        <v>1.57</v>
+      </c>
+      <c r="BL29">
+        <v>2.25</v>
+      </c>
+      <c r="BM29">
+        <v>1.91</v>
+      </c>
+      <c r="BN29">
+        <v>1.8</v>
+      </c>
+      <c r="BO29">
+        <v>2.52</v>
+      </c>
+      <c r="BP29">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7294982</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30">
+        <v>1.78</v>
+      </c>
+      <c r="R30">
+        <v>2.8</v>
+      </c>
+      <c r="S30">
+        <v>7.75</v>
+      </c>
+      <c r="T30">
+        <v>1.27</v>
+      </c>
+      <c r="U30">
+        <v>3.55</v>
+      </c>
+      <c r="V30">
+        <v>2.35</v>
+      </c>
+      <c r="W30">
+        <v>1.62</v>
+      </c>
+      <c r="X30">
+        <v>5.15</v>
+      </c>
+      <c r="Y30">
+        <v>1.14</v>
+      </c>
+      <c r="Z30">
+        <v>1.33</v>
+      </c>
+      <c r="AA30">
+        <v>4.8</v>
+      </c>
+      <c r="AB30">
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>19.25</v>
+      </c>
+      <c r="AE30">
+        <v>1.14</v>
+      </c>
+      <c r="AF30">
+        <v>4.65</v>
+      </c>
+      <c r="AG30">
+        <v>1.46</v>
+      </c>
+      <c r="AH30">
+        <v>2.48</v>
+      </c>
+      <c r="AI30">
+        <v>1.89</v>
+      </c>
+      <c r="AJ30">
+        <v>1.94</v>
+      </c>
+      <c r="AK30">
+        <v>1.1</v>
+      </c>
+      <c r="AL30">
+        <v>1.17</v>
+      </c>
+      <c r="AM30">
+        <v>3.36</v>
+      </c>
+      <c r="AN30">
+        <v>1.5</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>2.08</v>
+      </c>
+      <c r="AS30">
+        <v>1.19</v>
+      </c>
+      <c r="AT30">
+        <v>3.27</v>
+      </c>
+      <c r="AU30">
+        <v>7</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>4</v>
+      </c>
+      <c r="BA30">
+        <v>5</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>7</v>
+      </c>
+      <c r="BD30">
+        <v>1.16</v>
+      </c>
+      <c r="BE30">
+        <v>14</v>
+      </c>
+      <c r="BF30">
+        <v>6.25</v>
+      </c>
+      <c r="BG30">
+        <v>1.13</v>
+      </c>
+      <c r="BH30">
+        <v>5.5</v>
+      </c>
+      <c r="BI30">
+        <v>1.19</v>
+      </c>
+      <c r="BJ30">
+        <v>3.98</v>
+      </c>
+      <c r="BK30">
+        <v>1.36</v>
+      </c>
+      <c r="BL30">
+        <v>2.79</v>
+      </c>
+      <c r="BM30">
+        <v>1.68</v>
+      </c>
+      <c r="BN30">
+        <v>2.18</v>
+      </c>
+      <c r="BO30">
+        <v>2.06</v>
+      </c>
+      <c r="BP30">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7294983</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q31">
+        <v>2.2</v>
+      </c>
+      <c r="R31">
+        <v>2.4</v>
+      </c>
+      <c r="S31">
+        <v>4.5</v>
+      </c>
+      <c r="T31">
+        <v>1.29</v>
+      </c>
+      <c r="U31">
+        <v>3.5</v>
+      </c>
+      <c r="V31">
+        <v>2.38</v>
+      </c>
+      <c r="W31">
+        <v>1.53</v>
+      </c>
+      <c r="X31">
+        <v>5.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.14</v>
+      </c>
+      <c r="Z31">
+        <v>1.53</v>
+      </c>
+      <c r="AA31">
+        <v>4.2</v>
+      </c>
+      <c r="AB31">
+        <v>4.75</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>12</v>
+      </c>
+      <c r="AE31">
+        <v>1.17</v>
+      </c>
+      <c r="AF31">
+        <v>4.5</v>
+      </c>
+      <c r="AG31">
+        <v>1.53</v>
+      </c>
+      <c r="AH31">
+        <v>2.29</v>
+      </c>
+      <c r="AI31">
+        <v>1.62</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.22</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
+        <v>2.15</v>
+      </c>
+      <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1.67</v>
+      </c>
+      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <v>1.22</v>
+      </c>
+      <c r="AS31">
+        <v>0.88</v>
+      </c>
+      <c r="AT31">
+        <v>2.1</v>
+      </c>
+      <c r="AU31">
+        <v>6</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>5</v>
+      </c>
+      <c r="AX31">
+        <v>6</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>9</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>7</v>
+      </c>
+      <c r="BD31">
+        <v>1.4</v>
+      </c>
+      <c r="BE31">
+        <v>9.5</v>
+      </c>
+      <c r="BF31">
+        <v>3.4</v>
+      </c>
+      <c r="BG31">
+        <v>1.18</v>
+      </c>
+      <c r="BH31">
+        <v>4.5</v>
+      </c>
+      <c r="BI31">
+        <v>1.34</v>
+      </c>
+      <c r="BJ31">
+        <v>3.1</v>
+      </c>
+      <c r="BK31">
+        <v>1.48</v>
+      </c>
+      <c r="BL31">
+        <v>2.47</v>
+      </c>
+      <c r="BM31">
+        <v>1.9</v>
+      </c>
+      <c r="BN31">
+        <v>1.8</v>
+      </c>
+      <c r="BO31">
+        <v>2.35</v>
+      </c>
+      <c r="BP31">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7294984</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32">
+        <v>3.6</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>2.88</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
+        <v>2.75</v>
+      </c>
+      <c r="V32">
+        <v>2.75</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>2.8</v>
+      </c>
+      <c r="AA32">
+        <v>3.6</v>
+      </c>
+      <c r="AB32">
+        <v>2.15</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>9.4</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>3.42</v>
+      </c>
+      <c r="AG32">
+        <v>1.83</v>
+      </c>
+      <c r="AH32">
+        <v>1.83</v>
+      </c>
+      <c r="AI32">
+        <v>1.7</v>
+      </c>
+      <c r="AJ32">
+        <v>2.05</v>
+      </c>
+      <c r="AK32">
+        <v>1.68</v>
+      </c>
+      <c r="AL32">
+        <v>1.31</v>
+      </c>
+      <c r="AM32">
+        <v>1.35</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>0.59</v>
+      </c>
+      <c r="AS32">
+        <v>1.19</v>
+      </c>
+      <c r="AT32">
+        <v>1.78</v>
+      </c>
+      <c r="AU32">
+        <v>11</v>
+      </c>
+      <c r="AV32">
+        <v>7</v>
+      </c>
+      <c r="AW32">
+        <v>3</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>14</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>11</v>
+      </c>
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
+        <v>15</v>
+      </c>
+      <c r="BD32">
+        <v>2.3</v>
+      </c>
+      <c r="BE32">
+        <v>8</v>
+      </c>
+      <c r="BF32">
+        <v>1.8</v>
+      </c>
+      <c r="BG32">
+        <v>1.21</v>
+      </c>
+      <c r="BH32">
+        <v>4.2</v>
+      </c>
+      <c r="BI32">
+        <v>1.31</v>
+      </c>
+      <c r="BJ32">
+        <v>3.15</v>
+      </c>
+      <c r="BK32">
+        <v>1.57</v>
+      </c>
+      <c r="BL32">
+        <v>2.25</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.73</v>
+      </c>
+      <c r="BO32">
+        <v>2.6</v>
+      </c>
+      <c r="BP32">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7294985</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33">
+        <v>3.25</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>3.25</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>2.4</v>
+      </c>
+      <c r="AA33">
+        <v>3.5</v>
+      </c>
+      <c r="AB33">
+        <v>2.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.02</v>
+      </c>
+      <c r="AD33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE33">
+        <v>1.28</v>
+      </c>
+      <c r="AF33">
+        <v>3.22</v>
+      </c>
+      <c r="AG33">
+        <v>1.79</v>
+      </c>
+      <c r="AH33">
+        <v>1.88</v>
+      </c>
+      <c r="AI33">
+        <v>1.75</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>1.48</v>
+      </c>
+      <c r="AL33">
+        <v>1.32</v>
+      </c>
+      <c r="AM33">
+        <v>1.5</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>1.11</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>1.11</v>
+      </c>
+      <c r="AU33">
+        <v>10</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>5</v>
+      </c>
+      <c r="AY33">
+        <v>14</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
+        <v>10</v>
+      </c>
+      <c r="BD33">
+        <v>1.8</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>2.25</v>
+      </c>
+      <c r="BG33">
+        <v>1.19</v>
+      </c>
+      <c r="BH33">
+        <v>4.4</v>
+      </c>
+      <c r="BI33">
+        <v>1.36</v>
+      </c>
+      <c r="BJ33">
+        <v>3</v>
+      </c>
+      <c r="BK33">
+        <v>1.51</v>
+      </c>
+      <c r="BL33">
+        <v>2.37</v>
+      </c>
+      <c r="BM33">
+        <v>1.95</v>
+      </c>
+      <c r="BN33">
+        <v>1.77</v>
+      </c>
+      <c r="BO33">
+        <v>2.45</v>
+      </c>
+      <c r="BP33">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7294986</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45403.59375</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34">
+        <v>2.47</v>
+      </c>
+      <c r="R34">
+        <v>2.57</v>
+      </c>
+      <c r="S34">
+        <v>3.99</v>
+      </c>
+      <c r="T34">
+        <v>1.26</v>
+      </c>
+      <c r="U34">
+        <v>3.64</v>
+      </c>
+      <c r="V34">
+        <v>2.3</v>
+      </c>
+      <c r="W34">
+        <v>1.64</v>
+      </c>
+      <c r="X34">
+        <v>4.95</v>
+      </c>
+      <c r="Y34">
+        <v>1.15</v>
+      </c>
+      <c r="Z34">
+        <v>1.8</v>
+      </c>
+      <c r="AA34">
+        <v>3.9</v>
+      </c>
+      <c r="AB34">
+        <v>3.6</v>
+      </c>
+      <c r="AC34">
+        <v>1.02</v>
+      </c>
+      <c r="AD34">
+        <v>21</v>
+      </c>
+      <c r="AE34">
+        <v>1.13</v>
+      </c>
+      <c r="AF34">
+        <v>4.85</v>
+      </c>
+      <c r="AG34">
+        <v>1.49</v>
+      </c>
+      <c r="AH34">
+        <v>2.39</v>
+      </c>
+      <c r="AI34">
+        <v>1.54</v>
+      </c>
+      <c r="AJ34">
+        <v>2.54</v>
+      </c>
+      <c r="AK34">
+        <v>1.33</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.9</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>1.56</v>
+      </c>
+      <c r="AS34">
+        <v>1.93</v>
+      </c>
+      <c r="AT34">
+        <v>3.49</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>3</v>
+      </c>
+      <c r="BA34">
+        <v>11</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>13</v>
+      </c>
+      <c r="BD34">
+        <v>1.53</v>
+      </c>
+      <c r="BE34">
+        <v>9.6</v>
+      </c>
+      <c r="BF34">
+        <v>2.98</v>
+      </c>
+      <c r="BG34">
+        <v>1.18</v>
+      </c>
+      <c r="BH34">
+        <v>4.1</v>
+      </c>
+      <c r="BI34">
+        <v>1.36</v>
+      </c>
+      <c r="BJ34">
+        <v>2.79</v>
+      </c>
+      <c r="BK34">
+        <v>1.71</v>
+      </c>
+      <c r="BL34">
+        <v>2.13</v>
+      </c>
+      <c r="BM34">
+        <v>2.12</v>
+      </c>
+      <c r="BN34">
+        <v>1.72</v>
+      </c>
+      <c r="BO34">
+        <v>2.72</v>
+      </c>
+      <c r="BP34">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['7', '36', '51']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1030,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1230,7 +1236,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1642,7 +1648,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1848,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2132,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2466,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2878,7 +2884,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3084,7 +3090,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3496,7 +3502,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3702,7 +3708,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3908,7 +3914,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4114,7 +4120,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4320,7 +4326,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4526,7 +4532,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4938,7 +4944,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5222,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.33</v>
@@ -5350,7 +5356,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5556,7 +5562,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5968,7 +5974,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6174,7 +6180,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6380,7 +6386,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6586,7 +6592,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7204,7 +7210,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7616,7 +7622,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7773,6 +7779,212 @@
       </c>
       <c r="BP34">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7294987</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35">
+        <v>4.45</v>
+      </c>
+      <c r="R35">
+        <v>2.32</v>
+      </c>
+      <c r="S35">
+        <v>2.29</v>
+      </c>
+      <c r="T35">
+        <v>1.31</v>
+      </c>
+      <c r="U35">
+        <v>3.28</v>
+      </c>
+      <c r="V35">
+        <v>2.44</v>
+      </c>
+      <c r="W35">
+        <v>1.52</v>
+      </c>
+      <c r="X35">
+        <v>5.8</v>
+      </c>
+      <c r="Y35">
+        <v>1.12</v>
+      </c>
+      <c r="Z35">
+        <v>3.8</v>
+      </c>
+      <c r="AA35">
+        <v>2.52</v>
+      </c>
+      <c r="AB35">
+        <v>2.23</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>11</v>
+      </c>
+      <c r="AE35">
+        <v>1.18</v>
+      </c>
+      <c r="AF35">
+        <v>4.1</v>
+      </c>
+      <c r="AG35">
+        <v>1.57</v>
+      </c>
+      <c r="AH35">
+        <v>2.25</v>
+      </c>
+      <c r="AI35">
+        <v>1.63</v>
+      </c>
+      <c r="AJ35">
+        <v>2.19</v>
+      </c>
+      <c r="AK35">
+        <v>2</v>
+      </c>
+      <c r="AL35">
+        <v>1.26</v>
+      </c>
+      <c r="AM35">
+        <v>1.24</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>1.13</v>
+      </c>
+      <c r="AS35">
+        <v>1.55</v>
+      </c>
+      <c r="AT35">
+        <v>2.68</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>7</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>12</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>5</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>2.75</v>
+      </c>
+      <c r="BE35">
+        <v>8.5</v>
+      </c>
+      <c r="BF35">
+        <v>1.57</v>
+      </c>
+      <c r="BG35">
+        <v>1.23</v>
+      </c>
+      <c r="BH35">
+        <v>3.95</v>
+      </c>
+      <c r="BI35">
+        <v>1.41</v>
+      </c>
+      <c r="BJ35">
+        <v>2.7</v>
+      </c>
+      <c r="BK35">
+        <v>1.73</v>
+      </c>
+      <c r="BL35">
+        <v>2</v>
+      </c>
+      <c r="BM35">
+        <v>2.2</v>
+      </c>
+      <c r="BN35">
+        <v>1.6</v>
+      </c>
+      <c r="BO35">
+        <v>2.95</v>
+      </c>
+      <c r="BP35">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,21 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['71', '78']</t>
+  </si>
+  <si>
+    <t>['4', '10']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['30', '35', '90+7']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -410,6 +425,21 @@
   </si>
   <si>
     <t>['7', '36', '51']</t>
+  </si>
+  <si>
+    <t>['22', '40']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['17', '27', '51']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['25', '86', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1108,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1236,7 +1266,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1314,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1520,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1648,7 +1678,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1729,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1854,7 +1884,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -1932,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2141,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2347,7 +2377,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2472,7 +2502,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2550,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
+        <v>0.67</v>
+      </c>
+      <c r="AQ9">
         <v>0.5</v>
-      </c>
-      <c r="AQ9">
-        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2759,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2884,7 +2914,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3090,7 +3120,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3374,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3502,7 +3532,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3708,7 +3738,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3914,7 +3944,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4120,7 +4150,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4198,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4326,7 +4356,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4407,7 +4437,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4532,7 +4562,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4613,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -4816,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -4944,7 +4974,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5022,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5231,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5356,7 +5386,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5434,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5562,7 +5592,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5640,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5849,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -5974,7 +6004,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6052,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6180,7 +6210,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6386,7 +6416,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6592,7 +6622,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7210,7 +7240,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7622,7 +7652,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7828,7 +7858,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -7985,6 +8015,1448 @@
       </c>
       <c r="BP35">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7294993</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36">
+        <v>2.54</v>
+      </c>
+      <c r="R36">
+        <v>2.21</v>
+      </c>
+      <c r="S36">
+        <v>4.05</v>
+      </c>
+      <c r="T36">
+        <v>1.35</v>
+      </c>
+      <c r="U36">
+        <v>3.05</v>
+      </c>
+      <c r="V36">
+        <v>2.64</v>
+      </c>
+      <c r="W36">
+        <v>1.45</v>
+      </c>
+      <c r="X36">
+        <v>6.45</v>
+      </c>
+      <c r="Y36">
+        <v>1.09</v>
+      </c>
+      <c r="Z36">
+        <v>1.97</v>
+      </c>
+      <c r="AA36">
+        <v>3.28</v>
+      </c>
+      <c r="AB36">
+        <v>3.46</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>9.9</v>
+      </c>
+      <c r="AE36">
+        <v>1.23</v>
+      </c>
+      <c r="AF36">
+        <v>3.58</v>
+      </c>
+      <c r="AG36">
+        <v>1.74</v>
+      </c>
+      <c r="AH36">
+        <v>1.97</v>
+      </c>
+      <c r="AI36">
+        <v>1.69</v>
+      </c>
+      <c r="AJ36">
+        <v>2.09</v>
+      </c>
+      <c r="AK36">
+        <v>1.3</v>
+      </c>
+      <c r="AL36">
+        <v>1.28</v>
+      </c>
+      <c r="AM36">
+        <v>1.81</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>1.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.19</v>
+      </c>
+      <c r="AS36">
+        <v>0.76</v>
+      </c>
+      <c r="AT36">
+        <v>1.95</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>8</v>
+      </c>
+      <c r="AW36">
+        <v>10</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>17</v>
+      </c>
+      <c r="AZ36">
+        <v>13</v>
+      </c>
+      <c r="BA36">
+        <v>11</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>14</v>
+      </c>
+      <c r="BD36">
+        <v>1.67</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>2.6</v>
+      </c>
+      <c r="BG36">
+        <v>1.1</v>
+      </c>
+      <c r="BH36">
+        <v>5.4</v>
+      </c>
+      <c r="BI36">
+        <v>1.24</v>
+      </c>
+      <c r="BJ36">
+        <v>3.8</v>
+      </c>
+      <c r="BK36">
+        <v>1.43</v>
+      </c>
+      <c r="BL36">
+        <v>2.7</v>
+      </c>
+      <c r="BM36">
+        <v>1.73</v>
+      </c>
+      <c r="BN36">
+        <v>2</v>
+      </c>
+      <c r="BO36">
+        <v>2.23</v>
+      </c>
+      <c r="BP36">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7294992</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37">
+        <v>1.55</v>
+      </c>
+      <c r="R37">
+        <v>2.8</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>1.25</v>
+      </c>
+      <c r="U37">
+        <v>3.6</v>
+      </c>
+      <c r="V37">
+        <v>2.15</v>
+      </c>
+      <c r="W37">
+        <v>1.62</v>
+      </c>
+      <c r="X37">
+        <v>4.8</v>
+      </c>
+      <c r="Y37">
+        <v>1.15</v>
+      </c>
+      <c r="Z37">
+        <v>1.26</v>
+      </c>
+      <c r="AA37">
+        <v>5.03</v>
+      </c>
+      <c r="AB37">
+        <v>7.53</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>19</v>
+      </c>
+      <c r="AE37">
+        <v>1.11</v>
+      </c>
+      <c r="AF37">
+        <v>5.3</v>
+      </c>
+      <c r="AG37">
+        <v>1.5</v>
+      </c>
+      <c r="AH37">
+        <v>2.4</v>
+      </c>
+      <c r="AI37">
+        <v>1.83</v>
+      </c>
+      <c r="AJ37">
+        <v>1.85</v>
+      </c>
+      <c r="AK37">
+        <v>1.04</v>
+      </c>
+      <c r="AL37">
+        <v>1.06</v>
+      </c>
+      <c r="AM37">
+        <v>3.8</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>2.25</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>2.03</v>
+      </c>
+      <c r="AS37">
+        <v>0.86</v>
+      </c>
+      <c r="AT37">
+        <v>2.89</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>7</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>10</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>7</v>
+      </c>
+      <c r="BC37">
+        <v>11</v>
+      </c>
+      <c r="BD37">
+        <v>1.12</v>
+      </c>
+      <c r="BE37">
+        <v>12</v>
+      </c>
+      <c r="BF37">
+        <v>7</v>
+      </c>
+      <c r="BG37">
+        <v>1.13</v>
+      </c>
+      <c r="BH37">
+        <v>5.4</v>
+      </c>
+      <c r="BI37">
+        <v>1.21</v>
+      </c>
+      <c r="BJ37">
+        <v>3.74</v>
+      </c>
+      <c r="BK37">
+        <v>1.39</v>
+      </c>
+      <c r="BL37">
+        <v>2.67</v>
+      </c>
+      <c r="BM37">
+        <v>1.9</v>
+      </c>
+      <c r="BN37">
+        <v>1.9</v>
+      </c>
+      <c r="BO37">
+        <v>2.09</v>
+      </c>
+      <c r="BP37">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7294989</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38">
+        <v>2.6</v>
+      </c>
+      <c r="R38">
+        <v>2.15</v>
+      </c>
+      <c r="S38">
+        <v>3.75</v>
+      </c>
+      <c r="T38">
+        <v>1.35</v>
+      </c>
+      <c r="U38">
+        <v>3.05</v>
+      </c>
+      <c r="V38">
+        <v>2.55</v>
+      </c>
+      <c r="W38">
+        <v>1.45</v>
+      </c>
+      <c r="X38">
+        <v>5.75</v>
+      </c>
+      <c r="Y38">
+        <v>1.11</v>
+      </c>
+      <c r="Z38">
+        <v>1.94</v>
+      </c>
+      <c r="AA38">
+        <v>3.28</v>
+      </c>
+      <c r="AB38">
+        <v>3.24</v>
+      </c>
+      <c r="AC38">
+        <v>1.05</v>
+      </c>
+      <c r="AD38">
+        <v>9.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.25</v>
+      </c>
+      <c r="AF38">
+        <v>3.85</v>
+      </c>
+      <c r="AG38">
+        <v>1.72</v>
+      </c>
+      <c r="AH38">
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <v>1.65</v>
+      </c>
+      <c r="AJ38">
+        <v>2.2</v>
+      </c>
+      <c r="AK38">
+        <v>1.3</v>
+      </c>
+      <c r="AL38">
+        <v>1.25</v>
+      </c>
+      <c r="AM38">
+        <v>1.73</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>1.33</v>
+      </c>
+      <c r="AR38">
+        <v>1.7</v>
+      </c>
+      <c r="AS38">
+        <v>1.13</v>
+      </c>
+      <c r="AT38">
+        <v>2.83</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>5</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>7</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>8</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>11</v>
+      </c>
+      <c r="BD38">
+        <v>1.83</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>2.2</v>
+      </c>
+      <c r="BG38">
+        <v>1.18</v>
+      </c>
+      <c r="BH38">
+        <v>4.05</v>
+      </c>
+      <c r="BI38">
+        <v>1.36</v>
+      </c>
+      <c r="BJ38">
+        <v>2.79</v>
+      </c>
+      <c r="BK38">
+        <v>1.72</v>
+      </c>
+      <c r="BL38">
+        <v>2.12</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.73</v>
+      </c>
+      <c r="BO38">
+        <v>2.76</v>
+      </c>
+      <c r="BP38">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7294990</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q39">
+        <v>4.8</v>
+      </c>
+      <c r="R39">
+        <v>2.38</v>
+      </c>
+      <c r="S39">
+        <v>2.16</v>
+      </c>
+      <c r="T39">
+        <v>1.3</v>
+      </c>
+      <c r="U39">
+        <v>3.34</v>
+      </c>
+      <c r="V39">
+        <v>2.41</v>
+      </c>
+      <c r="W39">
+        <v>1.53</v>
+      </c>
+      <c r="X39">
+        <v>5.6</v>
+      </c>
+      <c r="Y39">
+        <v>1.12</v>
+      </c>
+      <c r="Z39">
+        <v>4.34</v>
+      </c>
+      <c r="AA39">
+        <v>3.78</v>
+      </c>
+      <c r="AB39">
+        <v>1.65</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>11</v>
+      </c>
+      <c r="AE39">
+        <v>1.17</v>
+      </c>
+      <c r="AF39">
+        <v>4.2</v>
+      </c>
+      <c r="AG39">
+        <v>1.61</v>
+      </c>
+      <c r="AH39">
+        <v>2.15</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.13</v>
+      </c>
+      <c r="AK39">
+        <v>2.24</v>
+      </c>
+      <c r="AL39">
+        <v>1.23</v>
+      </c>
+      <c r="AM39">
+        <v>1.18</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>0.67</v>
+      </c>
+      <c r="AQ39">
+        <v>1.67</v>
+      </c>
+      <c r="AR39">
+        <v>2.11</v>
+      </c>
+      <c r="AS39">
+        <v>2.28</v>
+      </c>
+      <c r="AT39">
+        <v>4.39</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>1</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>3</v>
+      </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>2</v>
+      </c>
+      <c r="BD39">
+        <v>2.88</v>
+      </c>
+      <c r="BE39">
+        <v>9</v>
+      </c>
+      <c r="BF39">
+        <v>1.53</v>
+      </c>
+      <c r="BG39">
+        <v>1.13</v>
+      </c>
+      <c r="BH39">
+        <v>4.85</v>
+      </c>
+      <c r="BI39">
+        <v>1.29</v>
+      </c>
+      <c r="BJ39">
+        <v>3.45</v>
+      </c>
+      <c r="BK39">
+        <v>1.5</v>
+      </c>
+      <c r="BL39">
+        <v>2.45</v>
+      </c>
+      <c r="BM39">
+        <v>1.9</v>
+      </c>
+      <c r="BN39">
+        <v>1.9</v>
+      </c>
+      <c r="BO39">
+        <v>2.43</v>
+      </c>
+      <c r="BP39">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7294988</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q40">
+        <v>2.52</v>
+      </c>
+      <c r="R40">
+        <v>2.29</v>
+      </c>
+      <c r="S40">
+        <v>3.86</v>
+      </c>
+      <c r="T40">
+        <v>1.31</v>
+      </c>
+      <c r="U40">
+        <v>3.28</v>
+      </c>
+      <c r="V40">
+        <v>2.44</v>
+      </c>
+      <c r="W40">
+        <v>1.52</v>
+      </c>
+      <c r="X40">
+        <v>5.8</v>
+      </c>
+      <c r="Y40">
+        <v>1.12</v>
+      </c>
+      <c r="Z40">
+        <v>1.86</v>
+      </c>
+      <c r="AA40">
+        <v>3.44</v>
+      </c>
+      <c r="AB40">
+        <v>3.67</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>1.18</v>
+      </c>
+      <c r="AF40">
+        <v>4.1</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.1</v>
+      </c>
+      <c r="AI40">
+        <v>1.59</v>
+      </c>
+      <c r="AJ40">
+        <v>2.27</v>
+      </c>
+      <c r="AK40">
+        <v>1.31</v>
+      </c>
+      <c r="AL40">
+        <v>1.27</v>
+      </c>
+      <c r="AM40">
+        <v>1.8</v>
+      </c>
+      <c r="AN40">
+        <v>0.5</v>
+      </c>
+      <c r="AO40">
+        <v>0.5</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>0.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.33</v>
+      </c>
+      <c r="AS40">
+        <v>1.33</v>
+      </c>
+      <c r="AT40">
+        <v>2.66</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>7</v>
+      </c>
+      <c r="AW40">
+        <v>2</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>8</v>
+      </c>
+      <c r="AZ40">
+        <v>11</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>11</v>
+      </c>
+      <c r="BD40">
+        <v>1.67</v>
+      </c>
+      <c r="BE40">
+        <v>8.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.5</v>
+      </c>
+      <c r="BG40">
+        <v>1.18</v>
+      </c>
+      <c r="BH40">
+        <v>4.6</v>
+      </c>
+      <c r="BI40">
+        <v>1.34</v>
+      </c>
+      <c r="BJ40">
+        <v>3.1</v>
+      </c>
+      <c r="BK40">
+        <v>1.6</v>
+      </c>
+      <c r="BL40">
+        <v>2.23</v>
+      </c>
+      <c r="BM40">
+        <v>2.05</v>
+      </c>
+      <c r="BN40">
+        <v>1.7</v>
+      </c>
+      <c r="BO40">
+        <v>2.65</v>
+      </c>
+      <c r="BP40">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7294991</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q41">
+        <v>2.14</v>
+      </c>
+      <c r="R41">
+        <v>2.47</v>
+      </c>
+      <c r="S41">
+        <v>5.79</v>
+      </c>
+      <c r="T41">
+        <v>1.34</v>
+      </c>
+      <c r="U41">
+        <v>3.35</v>
+      </c>
+      <c r="V41">
+        <v>2.68</v>
+      </c>
+      <c r="W41">
+        <v>1.49</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>1.12</v>
+      </c>
+      <c r="Z41">
+        <v>1.55</v>
+      </c>
+      <c r="AA41">
+        <v>3.71</v>
+      </c>
+      <c r="AB41">
+        <v>4.78</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>13</v>
+      </c>
+      <c r="AE41">
+        <v>1.24</v>
+      </c>
+      <c r="AF41">
+        <v>4.2</v>
+      </c>
+      <c r="AG41">
+        <v>1.73</v>
+      </c>
+      <c r="AH41">
+        <v>2</v>
+      </c>
+      <c r="AI41">
+        <v>1.8</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>1.14</v>
+      </c>
+      <c r="AL41">
+        <v>1.19</v>
+      </c>
+      <c r="AM41">
+        <v>2.5</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0.33</v>
+      </c>
+      <c r="AP41">
+        <v>0.33</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>1.56</v>
+      </c>
+      <c r="AS41">
+        <v>0.96</v>
+      </c>
+      <c r="AT41">
+        <v>2.52</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>2</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>6</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>8</v>
+      </c>
+      <c r="BC41">
+        <v>13</v>
+      </c>
+      <c r="BD41">
+        <v>1.3</v>
+      </c>
+      <c r="BE41">
+        <v>10</v>
+      </c>
+      <c r="BF41">
+        <v>4</v>
+      </c>
+      <c r="BG41">
+        <v>1.09</v>
+      </c>
+      <c r="BH41">
+        <v>6.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.16</v>
+      </c>
+      <c r="BJ41">
+        <v>4.3</v>
+      </c>
+      <c r="BK41">
+        <v>1.32</v>
+      </c>
+      <c r="BL41">
+        <v>2.98</v>
+      </c>
+      <c r="BM41">
+        <v>1.73</v>
+      </c>
+      <c r="BN41">
+        <v>2</v>
+      </c>
+      <c r="BO41">
+        <v>1.98</v>
+      </c>
+      <c r="BP41">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7294994</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45410.59375</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q42">
+        <v>3.3</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>2.7</v>
+      </c>
+      <c r="T42">
+        <v>1.32</v>
+      </c>
+      <c r="U42">
+        <v>3.1</v>
+      </c>
+      <c r="V42">
+        <v>2.5</v>
+      </c>
+      <c r="W42">
+        <v>1.45</v>
+      </c>
+      <c r="X42">
+        <v>5.8</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>2.8</v>
+      </c>
+      <c r="AA42">
+        <v>3.4</v>
+      </c>
+      <c r="AB42">
+        <v>2.08</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>10.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.22</v>
+      </c>
+      <c r="AF42">
+        <v>3.7</v>
+      </c>
+      <c r="AG42">
+        <v>1.65</v>
+      </c>
+      <c r="AH42">
+        <v>2.1</v>
+      </c>
+      <c r="AI42">
+        <v>1.6</v>
+      </c>
+      <c r="AJ42">
+        <v>2.15</v>
+      </c>
+      <c r="AK42">
+        <v>1.5</v>
+      </c>
+      <c r="AL42">
+        <v>1.32</v>
+      </c>
+      <c r="AM42">
+        <v>1.35</v>
+      </c>
+      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0.67</v>
+      </c>
+      <c r="AQ42">
+        <v>0.5</v>
+      </c>
+      <c r="AR42">
+        <v>1.44</v>
+      </c>
+      <c r="AS42">
+        <v>1.24</v>
+      </c>
+      <c r="AT42">
+        <v>2.68</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
+        <v>12</v>
+      </c>
+      <c r="AY42">
+        <v>6</v>
+      </c>
+      <c r="AZ42">
+        <v>18</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>10</v>
+      </c>
+      <c r="BC42">
+        <v>15</v>
+      </c>
+      <c r="BD42">
+        <v>2.4</v>
+      </c>
+      <c r="BE42">
+        <v>8.5</v>
+      </c>
+      <c r="BF42">
+        <v>1.73</v>
+      </c>
+      <c r="BG42">
+        <v>1.13</v>
+      </c>
+      <c r="BH42">
+        <v>4.75</v>
+      </c>
+      <c r="BI42">
+        <v>1.28</v>
+      </c>
+      <c r="BJ42">
+        <v>3.2</v>
+      </c>
+      <c r="BK42">
+        <v>1.59</v>
+      </c>
+      <c r="BL42">
+        <v>2.34</v>
+      </c>
+      <c r="BM42">
+        <v>1.95</v>
+      </c>
+      <c r="BN42">
+        <v>1.85</v>
+      </c>
+      <c r="BO42">
+        <v>2.39</v>
+      </c>
+      <c r="BP42">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
